--- a/unist_286D/doc/sleep_log/SleepLog_first_and_second_30days_Spring2020.xlsx
+++ b/unist_286D/doc/sleep_log/SleepLog_first_and_second_30days_Spring2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -925,6 +925,21 @@
                 <c:pt idx="20">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -938,11 +953,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="17292804"/>
-        <c:axId val="35689385"/>
+        <c:axId val="3394260"/>
+        <c:axId val="92418394"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17292804"/>
+        <c:axId val="3394260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,14 +1013,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35689385"/>
+        <c:crossAx val="92418394"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35689385"/>
+        <c:axId val="92418394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1085,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17292804"/>
+        <c:crossAx val="3394260"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1129,9 +1144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>351720</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1139,8 +1154,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3401280" y="6165720"/>
-        <a:ext cx="5763960" cy="3239640"/>
+        <a:off x="3404880" y="6165720"/>
+        <a:ext cx="5773320" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1160,11 +1175,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.23"/>
   </cols>
@@ -1935,14 +1950,24 @@
       <c r="E16" s="9" t="n">
         <v>9.5</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -1975,14 +2000,24 @@
       <c r="E17" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -2015,14 +2050,24 @@
       <c r="E18" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="I18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -2055,14 +2100,24 @@
       <c r="E19" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -2095,14 +2150,24 @@
       <c r="E20" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="I20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2135,14 +2200,24 @@
       <c r="E21" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -2175,14 +2250,24 @@
       <c r="E22" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -2206,17 +2291,33 @@
       <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="8" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="I23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -2240,17 +2341,33 @@
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="8" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="I24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -2274,17 +2391,33 @@
       <c r="B25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="8" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="I25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -2308,17 +2441,33 @@
       <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="I26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -2342,17 +2491,33 @@
       <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="C27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -2376,8 +2541,8 @@
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
@@ -2570,7 +2735,7 @@
       </c>
       <c r="C34" s="18" t="n">
         <f aca="false">AVERAGE(E2:E31)</f>
-        <v>9.11904761904762</v>
+        <v>9.17307692307692</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2735,7 +2900,7 @@
       </c>
       <c r="C39" s="18" t="n">
         <f aca="false">_xlfn.STDEV.P(E2:E31)</f>
-        <v>0.426914787548598</v>
+        <v>0.408851762028256</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -29639,7 +29804,7 @@
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.45"/>

--- a/unist_286D/doc/sleep_log/SleepLog_first_and_second_30days_Spring2020.xlsx
+++ b/unist_286D/doc/sleep_log/SleepLog_first_and_second_30days_Spring2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 1-April 30" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="81">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -581,7 +581,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,10 +672,6 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -940,6 +936,18 @@
                 <c:pt idx="25">
                   <c:v>9.5</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -953,11 +961,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="3394260"/>
-        <c:axId val="92418394"/>
+        <c:axId val="63960037"/>
+        <c:axId val="25851587"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3394260"/>
+        <c:axId val="63960037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,14 +1021,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92418394"/>
+        <c:crossAx val="25851587"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92418394"/>
+        <c:axId val="25851587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1093,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3394260"/>
+        <c:crossAx val="63960037"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1144,9 +1152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>351720</xdr:colOff>
+      <xdr:colOff>351360</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1154,8 +1162,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3404880" y="6165720"/>
-        <a:ext cx="5773320" cy="3239280"/>
+        <a:off x="3408840" y="6165720"/>
+        <a:ext cx="5782320" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1175,11 +1183,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.23"/>
   </cols>
@@ -2541,17 +2549,33 @@
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
+      <c r="C28" s="8" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="I28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -2575,17 +2599,33 @@
       <c r="B29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="I29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -2609,17 +2649,33 @@
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="I30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -2643,17 +2699,33 @@
       <c r="B31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
+      <c r="C31" s="8" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="I31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -2735,7 +2807,7 @@
       </c>
       <c r="C34" s="18" t="n">
         <f aca="false">AVERAGE(E2:E31)</f>
-        <v>9.17307692307692</v>
+        <v>9.16666666666667</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2900,7 +2972,7 @@
       </c>
       <c r="C39" s="18" t="n">
         <f aca="false">_xlfn.STDEV.P(E2:E31)</f>
-        <v>0.408851762028256</v>
+        <v>0.409945795874962</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -29800,11 +29872,11 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.45"/>
@@ -29868,17 +29940,33 @@
       <c r="B2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="8" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -29902,17 +29990,33 @@
       <c r="B3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="I3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -29936,17 +30040,33 @@
       <c r="B4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="C4" s="8" t="n">
+        <v>0.0104166666666667</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -29970,17 +30090,33 @@
       <c r="B5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -30004,17 +30140,17 @@
       <c r="B6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -30038,17 +30174,17 @@
       <c r="B7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -30072,17 +30208,17 @@
       <c r="B8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -30106,17 +30242,17 @@
       <c r="B9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -30140,17 +30276,17 @@
       <c r="B10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -30174,17 +30310,17 @@
       <c r="B11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -30208,17 +30344,17 @@
       <c r="B12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -30242,17 +30378,17 @@
       <c r="B13" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -30276,17 +30412,17 @@
       <c r="B14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -30310,17 +30446,17 @@
       <c r="B15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -30344,17 +30480,17 @@
       <c r="B16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -30378,17 +30514,17 @@
       <c r="B17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -30412,17 +30548,17 @@
       <c r="B18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -30446,17 +30582,17 @@
       <c r="B19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -30480,17 +30616,17 @@
       <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -30514,17 +30650,17 @@
       <c r="B21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -30548,17 +30684,17 @@
       <c r="B22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -30582,17 +30718,17 @@
       <c r="B23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -30616,17 +30752,17 @@
       <c r="B24" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -30650,17 +30786,17 @@
       <c r="B25" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -30684,17 +30820,17 @@
       <c r="B26" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -30718,17 +30854,17 @@
       <c r="B27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -30752,17 +30888,17 @@
       <c r="B28" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -30786,17 +30922,17 @@
       <c r="B29" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -30820,17 +30956,17 @@
       <c r="B30" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -30854,17 +30990,17 @@
       <c r="B31" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -30883,7 +31019,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -30911,7 +31047,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -30939,7 +31075,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -30967,7 +31103,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -30995,7 +31131,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -31023,7 +31159,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13"/>
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -31051,7 +31187,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
-      <c r="B38" s="26"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -31079,7 +31215,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
-      <c r="B39" s="26"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -31107,7 +31243,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
-      <c r="B40" s="26"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -31135,7 +31271,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
-      <c r="B41" s="26"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -31163,7 +31299,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13"/>
-      <c r="B42" s="26"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -31191,7 +31327,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13"/>
-      <c r="B43" s="26"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -31219,7 +31355,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13"/>
-      <c r="B44" s="26"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -31247,7 +31383,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13"/>
-      <c r="B45" s="26"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -31275,7 +31411,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
-      <c r="B46" s="26"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -31303,7 +31439,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13"/>
-      <c r="B47" s="26"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -31331,7 +31467,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13"/>
-      <c r="B48" s="26"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -31359,7 +31495,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -31387,7 +31523,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13"/>
-      <c r="B50" s="26"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -31415,7 +31551,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13"/>
-      <c r="B51" s="26"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -31443,7 +31579,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13"/>
-      <c r="B52" s="26"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -31471,7 +31607,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13"/>
-      <c r="B53" s="26"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -31499,7 +31635,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13"/>
-      <c r="B54" s="26"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -31527,7 +31663,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -31555,7 +31691,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13"/>
-      <c r="B56" s="26"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -31583,7 +31719,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13"/>
-      <c r="B57" s="26"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -31611,7 +31747,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -31639,7 +31775,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13"/>
-      <c r="B59" s="26"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -31667,7 +31803,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13"/>
-      <c r="B60" s="26"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -31695,7 +31831,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -31723,7 +31859,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
-      <c r="B62" s="26"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -31751,7 +31887,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -31779,7 +31915,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
-      <c r="B64" s="26"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -31807,7 +31943,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13"/>
-      <c r="B65" s="26"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -31835,7 +31971,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13"/>
-      <c r="B66" s="26"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -31863,7 +31999,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13"/>
-      <c r="B67" s="26"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -31891,7 +32027,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13"/>
-      <c r="B68" s="26"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -31919,7 +32055,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13"/>
-      <c r="B69" s="26"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -31947,7 +32083,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13"/>
-      <c r="B70" s="26"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -31975,7 +32111,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13"/>
-      <c r="B71" s="26"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -32003,7 +32139,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13"/>
-      <c r="B72" s="26"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -32031,7 +32167,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13"/>
-      <c r="B73" s="26"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -32059,7 +32195,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13"/>
-      <c r="B74" s="26"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -32087,7 +32223,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13"/>
-      <c r="B75" s="26"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -32115,7 +32251,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13"/>
-      <c r="B76" s="26"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -32143,7 +32279,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13"/>
-      <c r="B77" s="26"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -32171,7 +32307,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -32199,7 +32335,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13"/>
-      <c r="B79" s="26"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -32227,7 +32363,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13"/>
-      <c r="B80" s="26"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
@@ -32255,7 +32391,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13"/>
-      <c r="B81" s="26"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -32283,7 +32419,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13"/>
-      <c r="B82" s="26"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
@@ -32311,7 +32447,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -32339,7 +32475,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13"/>
-      <c r="B84" s="26"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -32367,7 +32503,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13"/>
-      <c r="B85" s="26"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -32395,7 +32531,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -32423,7 +32559,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13"/>
-      <c r="B87" s="26"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
@@ -32451,7 +32587,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13"/>
-      <c r="B88" s="26"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
@@ -32479,7 +32615,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13"/>
-      <c r="B89" s="26"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -32507,7 +32643,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13"/>
-      <c r="B90" s="26"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -32535,7 +32671,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
@@ -32563,7 +32699,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13"/>
-      <c r="B92" s="26"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -32591,7 +32727,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -32619,7 +32755,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13"/>
-      <c r="B94" s="26"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -32647,7 +32783,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -32675,7 +32811,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13"/>
-      <c r="B96" s="26"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -32703,7 +32839,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13"/>
-      <c r="B97" s="26"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -32731,7 +32867,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13"/>
-      <c r="B98" s="26"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -32759,7 +32895,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13"/>
-      <c r="B99" s="26"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -32787,7 +32923,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13"/>
-      <c r="B100" s="26"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -32815,7 +32951,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13"/>
-      <c r="B101" s="26"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -32843,7 +32979,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13"/>
-      <c r="B102" s="26"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -32871,7 +33007,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13"/>
-      <c r="B103" s="26"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
@@ -32899,7 +33035,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13"/>
-      <c r="B104" s="26"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -32927,7 +33063,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13"/>
-      <c r="B105" s="26"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
@@ -32955,7 +33091,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13"/>
-      <c r="B106" s="26"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -32983,7 +33119,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13"/>
-      <c r="B107" s="26"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
@@ -33011,7 +33147,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13"/>
-      <c r="B108" s="26"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -33039,7 +33175,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13"/>
-      <c r="B109" s="26"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -33067,7 +33203,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13"/>
-      <c r="B110" s="26"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -33095,7 +33231,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13"/>
-      <c r="B111" s="26"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
@@ -33123,7 +33259,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13"/>
-      <c r="B112" s="26"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -33151,7 +33287,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13"/>
-      <c r="B113" s="26"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
@@ -33179,7 +33315,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -33207,7 +33343,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13"/>
-      <c r="B115" s="26"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
@@ -33235,7 +33371,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13"/>
-      <c r="B116" s="26"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -33263,7 +33399,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13"/>
-      <c r="B117" s="26"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
@@ -33291,7 +33427,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13"/>
-      <c r="B118" s="26"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -33319,7 +33455,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13"/>
-      <c r="B119" s="26"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
@@ -33347,7 +33483,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13"/>
-      <c r="B120" s="26"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -33375,7 +33511,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13"/>
-      <c r="B121" s="26"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -33403,7 +33539,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13"/>
-      <c r="B122" s="26"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -33431,7 +33567,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13"/>
-      <c r="B123" s="26"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
@@ -33459,7 +33595,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13"/>
-      <c r="B124" s="26"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -33487,7 +33623,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13"/>
-      <c r="B125" s="26"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
@@ -33515,7 +33651,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13"/>
-      <c r="B126" s="26"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
@@ -33543,7 +33679,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13"/>
-      <c r="B127" s="26"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
@@ -33571,7 +33707,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13"/>
-      <c r="B128" s="26"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -33599,7 +33735,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13"/>
-      <c r="B129" s="26"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
@@ -33627,7 +33763,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13"/>
-      <c r="B130" s="26"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
@@ -33655,7 +33791,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13"/>
-      <c r="B131" s="26"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
@@ -33683,7 +33819,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13"/>
-      <c r="B132" s="26"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
@@ -33711,7 +33847,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13"/>
-      <c r="B133" s="26"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -33739,7 +33875,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13"/>
-      <c r="B134" s="26"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -33767,7 +33903,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13"/>
-      <c r="B135" s="26"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
@@ -33795,7 +33931,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13"/>
-      <c r="B136" s="26"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -33823,7 +33959,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13"/>
-      <c r="B137" s="26"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
@@ -33851,7 +33987,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13"/>
-      <c r="B138" s="26"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -33879,7 +34015,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13"/>
-      <c r="B139" s="26"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
@@ -33907,7 +34043,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13"/>
-      <c r="B140" s="26"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
@@ -33935,7 +34071,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13"/>
-      <c r="B141" s="26"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
@@ -33963,7 +34099,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13"/>
-      <c r="B142" s="26"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
@@ -33991,7 +34127,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13"/>
-      <c r="B143" s="26"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
@@ -34019,7 +34155,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13"/>
-      <c r="B144" s="26"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -34047,7 +34183,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13"/>
-      <c r="B145" s="26"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -34075,7 +34211,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13"/>
-      <c r="B146" s="26"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -34103,7 +34239,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13"/>
-      <c r="B147" s="26"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
@@ -34131,7 +34267,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13"/>
-      <c r="B148" s="26"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -34159,7 +34295,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13"/>
-      <c r="B149" s="26"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -34187,7 +34323,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13"/>
-      <c r="B150" s="26"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -34215,7 +34351,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13"/>
-      <c r="B151" s="26"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
@@ -34243,7 +34379,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13"/>
-      <c r="B152" s="26"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
@@ -34271,7 +34407,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13"/>
-      <c r="B153" s="26"/>
+      <c r="B153" s="25"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
@@ -34299,7 +34435,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13"/>
-      <c r="B154" s="26"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
@@ -34327,7 +34463,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13"/>
-      <c r="B155" s="26"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
@@ -34355,7 +34491,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13"/>
-      <c r="B156" s="26"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
@@ -34383,7 +34519,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13"/>
-      <c r="B157" s="26"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
@@ -34411,7 +34547,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="13"/>
-      <c r="B158" s="26"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
@@ -34439,7 +34575,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="13"/>
-      <c r="B159" s="26"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
@@ -34467,7 +34603,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="13"/>
-      <c r="B160" s="26"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
@@ -34495,7 +34631,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="13"/>
-      <c r="B161" s="26"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
@@ -34523,7 +34659,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13"/>
-      <c r="B162" s="26"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -34551,7 +34687,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13"/>
-      <c r="B163" s="26"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
@@ -34579,7 +34715,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13"/>
-      <c r="B164" s="26"/>
+      <c r="B164" s="25"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -34607,7 +34743,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13"/>
-      <c r="B165" s="26"/>
+      <c r="B165" s="25"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
@@ -34635,7 +34771,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13"/>
-      <c r="B166" s="26"/>
+      <c r="B166" s="25"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
@@ -34663,7 +34799,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13"/>
-      <c r="B167" s="26"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
@@ -34691,7 +34827,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13"/>
-      <c r="B168" s="26"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
@@ -34719,7 +34855,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13"/>
-      <c r="B169" s="26"/>
+      <c r="B169" s="25"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
@@ -34747,7 +34883,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13"/>
-      <c r="B170" s="26"/>
+      <c r="B170" s="25"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -34775,7 +34911,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13"/>
-      <c r="B171" s="26"/>
+      <c r="B171" s="25"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
@@ -34803,7 +34939,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13"/>
-      <c r="B172" s="26"/>
+      <c r="B172" s="25"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
@@ -34831,7 +34967,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13"/>
-      <c r="B173" s="26"/>
+      <c r="B173" s="25"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
@@ -34859,7 +34995,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13"/>
-      <c r="B174" s="26"/>
+      <c r="B174" s="25"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
@@ -34887,7 +35023,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13"/>
-      <c r="B175" s="26"/>
+      <c r="B175" s="25"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -34915,7 +35051,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13"/>
-      <c r="B176" s="26"/>
+      <c r="B176" s="25"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
@@ -34943,7 +35079,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13"/>
-      <c r="B177" s="26"/>
+      <c r="B177" s="25"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
@@ -34971,7 +35107,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13"/>
-      <c r="B178" s="26"/>
+      <c r="B178" s="25"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
@@ -34999,7 +35135,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13"/>
-      <c r="B179" s="26"/>
+      <c r="B179" s="25"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
@@ -35027,7 +35163,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13"/>
-      <c r="B180" s="26"/>
+      <c r="B180" s="25"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
@@ -35055,7 +35191,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13"/>
-      <c r="B181" s="26"/>
+      <c r="B181" s="25"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -35083,7 +35219,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13"/>
-      <c r="B182" s="26"/>
+      <c r="B182" s="25"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -35111,7 +35247,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13"/>
-      <c r="B183" s="26"/>
+      <c r="B183" s="25"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
@@ -35139,7 +35275,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13"/>
-      <c r="B184" s="26"/>
+      <c r="B184" s="25"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
@@ -35167,7 +35303,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13"/>
-      <c r="B185" s="26"/>
+      <c r="B185" s="25"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -35195,7 +35331,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13"/>
-      <c r="B186" s="26"/>
+      <c r="B186" s="25"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -35223,7 +35359,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13"/>
-      <c r="B187" s="26"/>
+      <c r="B187" s="25"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -35251,7 +35387,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13"/>
-      <c r="B188" s="26"/>
+      <c r="B188" s="25"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
@@ -35279,7 +35415,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13"/>
-      <c r="B189" s="26"/>
+      <c r="B189" s="25"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
@@ -35307,7 +35443,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13"/>
-      <c r="B190" s="26"/>
+      <c r="B190" s="25"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
@@ -35335,7 +35471,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13"/>
-      <c r="B191" s="26"/>
+      <c r="B191" s="25"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
@@ -35363,7 +35499,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13"/>
-      <c r="B192" s="26"/>
+      <c r="B192" s="25"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -35391,7 +35527,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13"/>
-      <c r="B193" s="26"/>
+      <c r="B193" s="25"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -35419,7 +35555,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13"/>
-      <c r="B194" s="26"/>
+      <c r="B194" s="25"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -35447,7 +35583,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13"/>
-      <c r="B195" s="26"/>
+      <c r="B195" s="25"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
@@ -35475,7 +35611,7 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="13"/>
-      <c r="B196" s="26"/>
+      <c r="B196" s="25"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
@@ -35503,7 +35639,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="13"/>
-      <c r="B197" s="26"/>
+      <c r="B197" s="25"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
@@ -35531,7 +35667,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="13"/>
-      <c r="B198" s="26"/>
+      <c r="B198" s="25"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -35559,7 +35695,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13"/>
-      <c r="B199" s="26"/>
+      <c r="B199" s="25"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -35587,7 +35723,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="13"/>
-      <c r="B200" s="26"/>
+      <c r="B200" s="25"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
@@ -35615,7 +35751,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="13"/>
-      <c r="B201" s="26"/>
+      <c r="B201" s="25"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
@@ -35643,7 +35779,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="13"/>
-      <c r="B202" s="26"/>
+      <c r="B202" s="25"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
@@ -35671,7 +35807,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13"/>
-      <c r="B203" s="26"/>
+      <c r="B203" s="25"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
@@ -35699,7 +35835,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="25"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
@@ -35727,7 +35863,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13"/>
-      <c r="B205" s="26"/>
+      <c r="B205" s="25"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -35755,7 +35891,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="13"/>
-      <c r="B206" s="26"/>
+      <c r="B206" s="25"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
@@ -35783,7 +35919,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13"/>
-      <c r="B207" s="26"/>
+      <c r="B207" s="25"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
@@ -35811,7 +35947,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13"/>
-      <c r="B208" s="26"/>
+      <c r="B208" s="25"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
@@ -35839,7 +35975,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13"/>
-      <c r="B209" s="26"/>
+      <c r="B209" s="25"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
@@ -35867,7 +36003,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="25"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -35895,7 +36031,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13"/>
-      <c r="B211" s="26"/>
+      <c r="B211" s="25"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
@@ -35923,7 +36059,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13"/>
-      <c r="B212" s="26"/>
+      <c r="B212" s="25"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
@@ -35951,7 +36087,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="13"/>
-      <c r="B213" s="26"/>
+      <c r="B213" s="25"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
@@ -35979,7 +36115,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="13"/>
-      <c r="B214" s="26"/>
+      <c r="B214" s="25"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
@@ -36007,7 +36143,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="13"/>
-      <c r="B215" s="26"/>
+      <c r="B215" s="25"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
@@ -36035,7 +36171,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="13"/>
-      <c r="B216" s="26"/>
+      <c r="B216" s="25"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
@@ -36063,7 +36199,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="13"/>
-      <c r="B217" s="26"/>
+      <c r="B217" s="25"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
@@ -36091,7 +36227,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13"/>
-      <c r="B218" s="26"/>
+      <c r="B218" s="25"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
@@ -36119,7 +36255,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13"/>
-      <c r="B219" s="26"/>
+      <c r="B219" s="25"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
@@ -36147,7 +36283,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13"/>
-      <c r="B220" s="26"/>
+      <c r="B220" s="25"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
@@ -36175,7 +36311,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13"/>
-      <c r="B221" s="26"/>
+      <c r="B221" s="25"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
@@ -36203,7 +36339,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13"/>
-      <c r="B222" s="26"/>
+      <c r="B222" s="25"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -36231,7 +36367,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13"/>
-      <c r="B223" s="26"/>
+      <c r="B223" s="25"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
@@ -36259,7 +36395,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13"/>
-      <c r="B224" s="26"/>
+      <c r="B224" s="25"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
@@ -36287,7 +36423,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13"/>
-      <c r="B225" s="26"/>
+      <c r="B225" s="25"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
@@ -36315,7 +36451,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="13"/>
-      <c r="B226" s="26"/>
+      <c r="B226" s="25"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
@@ -36343,7 +36479,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13"/>
-      <c r="B227" s="26"/>
+      <c r="B227" s="25"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -36371,7 +36507,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13"/>
-      <c r="B228" s="26"/>
+      <c r="B228" s="25"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
@@ -36399,7 +36535,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13"/>
-      <c r="B229" s="26"/>
+      <c r="B229" s="25"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
@@ -36427,7 +36563,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13"/>
-      <c r="B230" s="26"/>
+      <c r="B230" s="25"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
@@ -36455,7 +36591,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13"/>
-      <c r="B231" s="26"/>
+      <c r="B231" s="25"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
@@ -36483,7 +36619,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="13"/>
-      <c r="B232" s="26"/>
+      <c r="B232" s="25"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -36511,7 +36647,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13"/>
-      <c r="B233" s="26"/>
+      <c r="B233" s="25"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
@@ -36539,7 +36675,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13"/>
-      <c r="B234" s="26"/>
+      <c r="B234" s="25"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
@@ -36567,7 +36703,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13"/>
-      <c r="B235" s="26"/>
+      <c r="B235" s="25"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
@@ -36595,7 +36731,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13"/>
-      <c r="B236" s="26"/>
+      <c r="B236" s="25"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
@@ -36623,7 +36759,7 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="13"/>
-      <c r="B237" s="26"/>
+      <c r="B237" s="25"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
@@ -36651,7 +36787,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="13"/>
-      <c r="B238" s="26"/>
+      <c r="B238" s="25"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -36679,7 +36815,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="13"/>
-      <c r="B239" s="26"/>
+      <c r="B239" s="25"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
@@ -36707,7 +36843,7 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="13"/>
-      <c r="B240" s="26"/>
+      <c r="B240" s="25"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
@@ -36735,7 +36871,7 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13"/>
-      <c r="B241" s="26"/>
+      <c r="B241" s="25"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
@@ -36763,7 +36899,7 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13"/>
-      <c r="B242" s="26"/>
+      <c r="B242" s="25"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
@@ -36791,7 +36927,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="13"/>
-      <c r="B243" s="26"/>
+      <c r="B243" s="25"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -36819,7 +36955,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13"/>
-      <c r="B244" s="26"/>
+      <c r="B244" s="25"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
@@ -36847,7 +36983,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13"/>
-      <c r="B245" s="26"/>
+      <c r="B245" s="25"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
@@ -36875,7 +37011,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13"/>
-      <c r="B246" s="26"/>
+      <c r="B246" s="25"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
@@ -36903,7 +37039,7 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="13"/>
-      <c r="B247" s="26"/>
+      <c r="B247" s="25"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
@@ -36931,7 +37067,7 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="13"/>
-      <c r="B248" s="26"/>
+      <c r="B248" s="25"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
@@ -36959,7 +37095,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="13"/>
-      <c r="B249" s="26"/>
+      <c r="B249" s="25"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
@@ -36987,7 +37123,7 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="13"/>
-      <c r="B250" s="26"/>
+      <c r="B250" s="25"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
@@ -37015,7 +37151,7 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="13"/>
-      <c r="B251" s="26"/>
+      <c r="B251" s="25"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
@@ -37043,7 +37179,7 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="13"/>
-      <c r="B252" s="26"/>
+      <c r="B252" s="25"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
@@ -37071,7 +37207,7 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="13"/>
-      <c r="B253" s="26"/>
+      <c r="B253" s="25"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
@@ -37099,7 +37235,7 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="13"/>
-      <c r="B254" s="26"/>
+      <c r="B254" s="25"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
@@ -37127,7 +37263,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="13"/>
-      <c r="B255" s="26"/>
+      <c r="B255" s="25"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
@@ -37155,7 +37291,7 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="13"/>
-      <c r="B256" s="26"/>
+      <c r="B256" s="25"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
@@ -37183,7 +37319,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="13"/>
-      <c r="B257" s="26"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
@@ -37211,7 +37347,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="13"/>
-      <c r="B258" s="26"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
@@ -37239,7 +37375,7 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="13"/>
-      <c r="B259" s="26"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
@@ -37267,7 +37403,7 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="13"/>
-      <c r="B260" s="26"/>
+      <c r="B260" s="25"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
@@ -37295,7 +37431,7 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="13"/>
-      <c r="B261" s="26"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
@@ -37323,7 +37459,7 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="13"/>
-      <c r="B262" s="26"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
@@ -37351,7 +37487,7 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="13"/>
-      <c r="B263" s="26"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
@@ -37379,7 +37515,7 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="13"/>
-      <c r="B264" s="26"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
@@ -37407,7 +37543,7 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="13"/>
-      <c r="B265" s="26"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
@@ -37435,7 +37571,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="13"/>
-      <c r="B266" s="26"/>
+      <c r="B266" s="25"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
@@ -37463,7 +37599,7 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="13"/>
-      <c r="B267" s="26"/>
+      <c r="B267" s="25"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
@@ -37491,7 +37627,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="13"/>
-      <c r="B268" s="26"/>
+      <c r="B268" s="25"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -37519,7 +37655,7 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="13"/>
-      <c r="B269" s="26"/>
+      <c r="B269" s="25"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
@@ -37547,7 +37683,7 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="13"/>
-      <c r="B270" s="26"/>
+      <c r="B270" s="25"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
@@ -37575,7 +37711,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="13"/>
-      <c r="B271" s="26"/>
+      <c r="B271" s="25"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -37603,7 +37739,7 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="13"/>
-      <c r="B272" s="26"/>
+      <c r="B272" s="25"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
@@ -37631,7 +37767,7 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="13"/>
-      <c r="B273" s="26"/>
+      <c r="B273" s="25"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -37659,7 +37795,7 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="13"/>
-      <c r="B274" s="26"/>
+      <c r="B274" s="25"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
@@ -37687,7 +37823,7 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="13"/>
-      <c r="B275" s="26"/>
+      <c r="B275" s="25"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -37715,7 +37851,7 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="13"/>
-      <c r="B276" s="26"/>
+      <c r="B276" s="25"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
@@ -37743,7 +37879,7 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="13"/>
-      <c r="B277" s="26"/>
+      <c r="B277" s="25"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -37771,7 +37907,7 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="13"/>
-      <c r="B278" s="26"/>
+      <c r="B278" s="25"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
@@ -37799,7 +37935,7 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="13"/>
-      <c r="B279" s="26"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
@@ -37827,7 +37963,7 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="13"/>
-      <c r="B280" s="26"/>
+      <c r="B280" s="25"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
@@ -37855,7 +37991,7 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="13"/>
-      <c r="B281" s="26"/>
+      <c r="B281" s="25"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -37883,7 +38019,7 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="13"/>
-      <c r="B282" s="26"/>
+      <c r="B282" s="25"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
@@ -37911,7 +38047,7 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="13"/>
-      <c r="B283" s="26"/>
+      <c r="B283" s="25"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -37939,7 +38075,7 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="13"/>
-      <c r="B284" s="26"/>
+      <c r="B284" s="25"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
@@ -37967,7 +38103,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="13"/>
-      <c r="B285" s="26"/>
+      <c r="B285" s="25"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -37995,7 +38131,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="13"/>
-      <c r="B286" s="26"/>
+      <c r="B286" s="25"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
@@ -38023,7 +38159,7 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="13"/>
-      <c r="B287" s="26"/>
+      <c r="B287" s="25"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
@@ -38051,7 +38187,7 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="13"/>
-      <c r="B288" s="26"/>
+      <c r="B288" s="25"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
@@ -38079,7 +38215,7 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="13"/>
-      <c r="B289" s="26"/>
+      <c r="B289" s="25"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
@@ -38107,7 +38243,7 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="13"/>
-      <c r="B290" s="26"/>
+      <c r="B290" s="25"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
@@ -38135,7 +38271,7 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="13"/>
-      <c r="B291" s="26"/>
+      <c r="B291" s="25"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -38163,7 +38299,7 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="13"/>
-      <c r="B292" s="26"/>
+      <c r="B292" s="25"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -38191,7 +38327,7 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="13"/>
-      <c r="B293" s="26"/>
+      <c r="B293" s="25"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -38219,7 +38355,7 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="13"/>
-      <c r="B294" s="26"/>
+      <c r="B294" s="25"/>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
@@ -38247,7 +38383,7 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="13"/>
-      <c r="B295" s="26"/>
+      <c r="B295" s="25"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
@@ -38275,7 +38411,7 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="13"/>
-      <c r="B296" s="26"/>
+      <c r="B296" s="25"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
@@ -38303,7 +38439,7 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="13"/>
-      <c r="B297" s="26"/>
+      <c r="B297" s="25"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
@@ -38331,7 +38467,7 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="13"/>
-      <c r="B298" s="26"/>
+      <c r="B298" s="25"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
@@ -38359,7 +38495,7 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="13"/>
-      <c r="B299" s="26"/>
+      <c r="B299" s="25"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
@@ -38387,7 +38523,7 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="13"/>
-      <c r="B300" s="26"/>
+      <c r="B300" s="25"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
@@ -38415,7 +38551,7 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="13"/>
-      <c r="B301" s="26"/>
+      <c r="B301" s="25"/>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
@@ -38443,7 +38579,7 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="13"/>
-      <c r="B302" s="26"/>
+      <c r="B302" s="25"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
@@ -38471,7 +38607,7 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="13"/>
-      <c r="B303" s="26"/>
+      <c r="B303" s="25"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
@@ -38499,7 +38635,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="13"/>
-      <c r="B304" s="26"/>
+      <c r="B304" s="25"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
@@ -38527,7 +38663,7 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="13"/>
-      <c r="B305" s="26"/>
+      <c r="B305" s="25"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
@@ -38555,7 +38691,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="13"/>
-      <c r="B306" s="26"/>
+      <c r="B306" s="25"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
@@ -38583,7 +38719,7 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="13"/>
-      <c r="B307" s="26"/>
+      <c r="B307" s="25"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
@@ -38611,7 +38747,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="13"/>
-      <c r="B308" s="26"/>
+      <c r="B308" s="25"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
@@ -38639,7 +38775,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="13"/>
-      <c r="B309" s="26"/>
+      <c r="B309" s="25"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
@@ -38667,7 +38803,7 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="13"/>
-      <c r="B310" s="26"/>
+      <c r="B310" s="25"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
@@ -38695,7 +38831,7 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="13"/>
-      <c r="B311" s="26"/>
+      <c r="B311" s="25"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
@@ -38723,7 +38859,7 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="13"/>
-      <c r="B312" s="26"/>
+      <c r="B312" s="25"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
@@ -38751,7 +38887,7 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="13"/>
-      <c r="B313" s="26"/>
+      <c r="B313" s="25"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
@@ -38779,7 +38915,7 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="13"/>
-      <c r="B314" s="26"/>
+      <c r="B314" s="25"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
@@ -38807,7 +38943,7 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="13"/>
-      <c r="B315" s="26"/>
+      <c r="B315" s="25"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
@@ -38835,7 +38971,7 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="13"/>
-      <c r="B316" s="26"/>
+      <c r="B316" s="25"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
@@ -38863,7 +38999,7 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="13"/>
-      <c r="B317" s="26"/>
+      <c r="B317" s="25"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
@@ -38891,7 +39027,7 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="13"/>
-      <c r="B318" s="26"/>
+      <c r="B318" s="25"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
@@ -38919,7 +39055,7 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="13"/>
-      <c r="B319" s="26"/>
+      <c r="B319" s="25"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
@@ -38947,7 +39083,7 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="13"/>
-      <c r="B320" s="26"/>
+      <c r="B320" s="25"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
@@ -38975,7 +39111,7 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="13"/>
-      <c r="B321" s="26"/>
+      <c r="B321" s="25"/>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
@@ -39003,7 +39139,7 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="13"/>
-      <c r="B322" s="26"/>
+      <c r="B322" s="25"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
@@ -39031,7 +39167,7 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="13"/>
-      <c r="B323" s="26"/>
+      <c r="B323" s="25"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
@@ -39059,7 +39195,7 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="13"/>
-      <c r="B324" s="26"/>
+      <c r="B324" s="25"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
@@ -39087,7 +39223,7 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="13"/>
-      <c r="B325" s="26"/>
+      <c r="B325" s="25"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
@@ -39115,7 +39251,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="13"/>
-      <c r="B326" s="26"/>
+      <c r="B326" s="25"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
@@ -39143,7 +39279,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="13"/>
-      <c r="B327" s="26"/>
+      <c r="B327" s="25"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
@@ -39171,7 +39307,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="13"/>
-      <c r="B328" s="26"/>
+      <c r="B328" s="25"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
@@ -39199,7 +39335,7 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="13"/>
-      <c r="B329" s="26"/>
+      <c r="B329" s="25"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
       <c r="E329" s="11"/>
@@ -39227,7 +39363,7 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="13"/>
-      <c r="B330" s="26"/>
+      <c r="B330" s="25"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
@@ -39255,7 +39391,7 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="13"/>
-      <c r="B331" s="26"/>
+      <c r="B331" s="25"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
@@ -39283,7 +39419,7 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="13"/>
-      <c r="B332" s="26"/>
+      <c r="B332" s="25"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
@@ -39311,7 +39447,7 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="13"/>
-      <c r="B333" s="26"/>
+      <c r="B333" s="25"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
@@ -39339,7 +39475,7 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="13"/>
-      <c r="B334" s="26"/>
+      <c r="B334" s="25"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
@@ -39367,7 +39503,7 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="13"/>
-      <c r="B335" s="26"/>
+      <c r="B335" s="25"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
@@ -39395,7 +39531,7 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="13"/>
-      <c r="B336" s="26"/>
+      <c r="B336" s="25"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
@@ -39423,7 +39559,7 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="13"/>
-      <c r="B337" s="26"/>
+      <c r="B337" s="25"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
@@ -39451,7 +39587,7 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="13"/>
-      <c r="B338" s="26"/>
+      <c r="B338" s="25"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
@@ -39479,7 +39615,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="13"/>
-      <c r="B339" s="26"/>
+      <c r="B339" s="25"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
@@ -39507,7 +39643,7 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="13"/>
-      <c r="B340" s="26"/>
+      <c r="B340" s="25"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
@@ -39535,7 +39671,7 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="13"/>
-      <c r="B341" s="26"/>
+      <c r="B341" s="25"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
@@ -39563,7 +39699,7 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="13"/>
-      <c r="B342" s="26"/>
+      <c r="B342" s="25"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
@@ -39591,7 +39727,7 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="13"/>
-      <c r="B343" s="26"/>
+      <c r="B343" s="25"/>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
       <c r="E343" s="11"/>
@@ -39619,7 +39755,7 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="13"/>
-      <c r="B344" s="26"/>
+      <c r="B344" s="25"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
       <c r="E344" s="11"/>
@@ -39647,7 +39783,7 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="13"/>
-      <c r="B345" s="26"/>
+      <c r="B345" s="25"/>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
       <c r="E345" s="11"/>
@@ -39675,7 +39811,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="13"/>
-      <c r="B346" s="26"/>
+      <c r="B346" s="25"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
       <c r="E346" s="11"/>
@@ -39703,7 +39839,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="13"/>
-      <c r="B347" s="26"/>
+      <c r="B347" s="25"/>
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
       <c r="E347" s="11"/>
@@ -39731,7 +39867,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="13"/>
-      <c r="B348" s="26"/>
+      <c r="B348" s="25"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
@@ -39759,7 +39895,7 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="13"/>
-      <c r="B349" s="26"/>
+      <c r="B349" s="25"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
       <c r="E349" s="11"/>
@@ -39787,7 +39923,7 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="13"/>
-      <c r="B350" s="26"/>
+      <c r="B350" s="25"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
       <c r="E350" s="11"/>
@@ -39815,7 +39951,7 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="13"/>
-      <c r="B351" s="26"/>
+      <c r="B351" s="25"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
       <c r="E351" s="11"/>
@@ -39843,7 +39979,7 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="13"/>
-      <c r="B352" s="26"/>
+      <c r="B352" s="25"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
@@ -39871,7 +40007,7 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="13"/>
-      <c r="B353" s="26"/>
+      <c r="B353" s="25"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
       <c r="E353" s="11"/>
@@ -39899,7 +40035,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="13"/>
-      <c r="B354" s="26"/>
+      <c r="B354" s="25"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
@@ -39927,7 +40063,7 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="13"/>
-      <c r="B355" s="26"/>
+      <c r="B355" s="25"/>
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
@@ -39955,7 +40091,7 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="13"/>
-      <c r="B356" s="26"/>
+      <c r="B356" s="25"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
@@ -39983,7 +40119,7 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="13"/>
-      <c r="B357" s="26"/>
+      <c r="B357" s="25"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
@@ -40011,7 +40147,7 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="13"/>
-      <c r="B358" s="26"/>
+      <c r="B358" s="25"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
@@ -40039,7 +40175,7 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="13"/>
-      <c r="B359" s="26"/>
+      <c r="B359" s="25"/>
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
@@ -40067,7 +40203,7 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="13"/>
-      <c r="B360" s="26"/>
+      <c r="B360" s="25"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
@@ -40095,7 +40231,7 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="13"/>
-      <c r="B361" s="26"/>
+      <c r="B361" s="25"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
@@ -40123,7 +40259,7 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="13"/>
-      <c r="B362" s="26"/>
+      <c r="B362" s="25"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
@@ -40151,7 +40287,7 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="13"/>
-      <c r="B363" s="26"/>
+      <c r="B363" s="25"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
@@ -40179,7 +40315,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="13"/>
-      <c r="B364" s="26"/>
+      <c r="B364" s="25"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
@@ -40207,7 +40343,7 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="13"/>
-      <c r="B365" s="26"/>
+      <c r="B365" s="25"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
@@ -40235,7 +40371,7 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="13"/>
-      <c r="B366" s="26"/>
+      <c r="B366" s="25"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
@@ -40263,7 +40399,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="13"/>
-      <c r="B367" s="26"/>
+      <c r="B367" s="25"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
@@ -40291,7 +40427,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="13"/>
-      <c r="B368" s="26"/>
+      <c r="B368" s="25"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
@@ -40319,7 +40455,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="13"/>
-      <c r="B369" s="26"/>
+      <c r="B369" s="25"/>
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
       <c r="E369" s="11"/>
@@ -40347,7 +40483,7 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="13"/>
-      <c r="B370" s="26"/>
+      <c r="B370" s="25"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
@@ -40375,7 +40511,7 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="13"/>
-      <c r="B371" s="26"/>
+      <c r="B371" s="25"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
@@ -40403,7 +40539,7 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="13"/>
-      <c r="B372" s="26"/>
+      <c r="B372" s="25"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
@@ -40431,7 +40567,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="13"/>
-      <c r="B373" s="26"/>
+      <c r="B373" s="25"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
@@ -40459,7 +40595,7 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="13"/>
-      <c r="B374" s="26"/>
+      <c r="B374" s="25"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
@@ -40487,7 +40623,7 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="13"/>
-      <c r="B375" s="26"/>
+      <c r="B375" s="25"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
@@ -40515,7 +40651,7 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="13"/>
-      <c r="B376" s="26"/>
+      <c r="B376" s="25"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
@@ -40543,7 +40679,7 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="13"/>
-      <c r="B377" s="26"/>
+      <c r="B377" s="25"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
@@ -40571,7 +40707,7 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="13"/>
-      <c r="B378" s="26"/>
+      <c r="B378" s="25"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
@@ -40599,7 +40735,7 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="13"/>
-      <c r="B379" s="26"/>
+      <c r="B379" s="25"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
@@ -40627,7 +40763,7 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="13"/>
-      <c r="B380" s="26"/>
+      <c r="B380" s="25"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
@@ -40655,7 +40791,7 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="13"/>
-      <c r="B381" s="26"/>
+      <c r="B381" s="25"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
@@ -40683,7 +40819,7 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="13"/>
-      <c r="B382" s="26"/>
+      <c r="B382" s="25"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
@@ -40711,7 +40847,7 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="13"/>
-      <c r="B383" s="26"/>
+      <c r="B383" s="25"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
@@ -40739,7 +40875,7 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="13"/>
-      <c r="B384" s="26"/>
+      <c r="B384" s="25"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
@@ -40767,7 +40903,7 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="13"/>
-      <c r="B385" s="26"/>
+      <c r="B385" s="25"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
@@ -40795,7 +40931,7 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="13"/>
-      <c r="B386" s="26"/>
+      <c r="B386" s="25"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
@@ -40823,7 +40959,7 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="13"/>
-      <c r="B387" s="26"/>
+      <c r="B387" s="25"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
@@ -40851,7 +40987,7 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="13"/>
-      <c r="B388" s="26"/>
+      <c r="B388" s="25"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
@@ -40879,7 +41015,7 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="13"/>
-      <c r="B389" s="26"/>
+      <c r="B389" s="25"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
@@ -40907,7 +41043,7 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="13"/>
-      <c r="B390" s="26"/>
+      <c r="B390" s="25"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
@@ -40935,7 +41071,7 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="13"/>
-      <c r="B391" s="26"/>
+      <c r="B391" s="25"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
@@ -40963,7 +41099,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="13"/>
-      <c r="B392" s="26"/>
+      <c r="B392" s="25"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
@@ -40991,7 +41127,7 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="13"/>
-      <c r="B393" s="26"/>
+      <c r="B393" s="25"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
@@ -41019,7 +41155,7 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="13"/>
-      <c r="B394" s="26"/>
+      <c r="B394" s="25"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
@@ -41047,7 +41183,7 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="13"/>
-      <c r="B395" s="26"/>
+      <c r="B395" s="25"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
@@ -41075,7 +41211,7 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="13"/>
-      <c r="B396" s="26"/>
+      <c r="B396" s="25"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
@@ -41103,7 +41239,7 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="13"/>
-      <c r="B397" s="26"/>
+      <c r="B397" s="25"/>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
       <c r="E397" s="11"/>
@@ -41131,7 +41267,7 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="13"/>
-      <c r="B398" s="26"/>
+      <c r="B398" s="25"/>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
       <c r="E398" s="11"/>
@@ -41159,7 +41295,7 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="13"/>
-      <c r="B399" s="26"/>
+      <c r="B399" s="25"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
@@ -41187,7 +41323,7 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="13"/>
-      <c r="B400" s="26"/>
+      <c r="B400" s="25"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
@@ -41215,7 +41351,7 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="13"/>
-      <c r="B401" s="26"/>
+      <c r="B401" s="25"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
@@ -41243,7 +41379,7 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="13"/>
-      <c r="B402" s="26"/>
+      <c r="B402" s="25"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
@@ -41271,7 +41407,7 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="13"/>
-      <c r="B403" s="26"/>
+      <c r="B403" s="25"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
@@ -41299,7 +41435,7 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="13"/>
-      <c r="B404" s="26"/>
+      <c r="B404" s="25"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
@@ -41327,7 +41463,7 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="13"/>
-      <c r="B405" s="26"/>
+      <c r="B405" s="25"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
@@ -41355,7 +41491,7 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="13"/>
-      <c r="B406" s="26"/>
+      <c r="B406" s="25"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
       <c r="E406" s="11"/>
@@ -41383,7 +41519,7 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="13"/>
-      <c r="B407" s="26"/>
+      <c r="B407" s="25"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
@@ -41411,7 +41547,7 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="13"/>
-      <c r="B408" s="26"/>
+      <c r="B408" s="25"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
@@ -41439,7 +41575,7 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="13"/>
-      <c r="B409" s="26"/>
+      <c r="B409" s="25"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
@@ -41467,7 +41603,7 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="13"/>
-      <c r="B410" s="26"/>
+      <c r="B410" s="25"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
@@ -41495,7 +41631,7 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="13"/>
-      <c r="B411" s="26"/>
+      <c r="B411" s="25"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
@@ -41523,7 +41659,7 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="13"/>
-      <c r="B412" s="26"/>
+      <c r="B412" s="25"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
@@ -41551,7 +41687,7 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="13"/>
-      <c r="B413" s="26"/>
+      <c r="B413" s="25"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
@@ -41579,7 +41715,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="13"/>
-      <c r="B414" s="26"/>
+      <c r="B414" s="25"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
@@ -41607,7 +41743,7 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="13"/>
-      <c r="B415" s="26"/>
+      <c r="B415" s="25"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
@@ -41635,7 +41771,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="13"/>
-      <c r="B416" s="26"/>
+      <c r="B416" s="25"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
@@ -41663,7 +41799,7 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="13"/>
-      <c r="B417" s="26"/>
+      <c r="B417" s="25"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
@@ -41691,7 +41827,7 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="13"/>
-      <c r="B418" s="26"/>
+      <c r="B418" s="25"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
@@ -41719,7 +41855,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="13"/>
-      <c r="B419" s="26"/>
+      <c r="B419" s="25"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
@@ -41747,7 +41883,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="13"/>
-      <c r="B420" s="26"/>
+      <c r="B420" s="25"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
@@ -41775,7 +41911,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="13"/>
-      <c r="B421" s="26"/>
+      <c r="B421" s="25"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
@@ -41803,7 +41939,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="13"/>
-      <c r="B422" s="26"/>
+      <c r="B422" s="25"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
@@ -41831,7 +41967,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="13"/>
-      <c r="B423" s="26"/>
+      <c r="B423" s="25"/>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
@@ -41859,7 +41995,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="13"/>
-      <c r="B424" s="26"/>
+      <c r="B424" s="25"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
@@ -41887,7 +42023,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="13"/>
-      <c r="B425" s="26"/>
+      <c r="B425" s="25"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
@@ -41915,7 +42051,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="13"/>
-      <c r="B426" s="26"/>
+      <c r="B426" s="25"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
@@ -41943,7 +42079,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="13"/>
-      <c r="B427" s="26"/>
+      <c r="B427" s="25"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
@@ -41971,7 +42107,7 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="13"/>
-      <c r="B428" s="26"/>
+      <c r="B428" s="25"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
@@ -41999,7 +42135,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="13"/>
-      <c r="B429" s="26"/>
+      <c r="B429" s="25"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
       <c r="E429" s="11"/>
@@ -42027,7 +42163,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="13"/>
-      <c r="B430" s="26"/>
+      <c r="B430" s="25"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
       <c r="E430" s="11"/>
@@ -42055,7 +42191,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="13"/>
-      <c r="B431" s="26"/>
+      <c r="B431" s="25"/>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
       <c r="E431" s="11"/>
@@ -42083,7 +42219,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="13"/>
-      <c r="B432" s="26"/>
+      <c r="B432" s="25"/>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
       <c r="E432" s="11"/>
@@ -42111,7 +42247,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="13"/>
-      <c r="B433" s="26"/>
+      <c r="B433" s="25"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
@@ -42139,7 +42275,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="13"/>
-      <c r="B434" s="26"/>
+      <c r="B434" s="25"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
@@ -42167,7 +42303,7 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="13"/>
-      <c r="B435" s="26"/>
+      <c r="B435" s="25"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
@@ -42195,7 +42331,7 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="13"/>
-      <c r="B436" s="26"/>
+      <c r="B436" s="25"/>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
       <c r="E436" s="11"/>
@@ -42223,7 +42359,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="13"/>
-      <c r="B437" s="26"/>
+      <c r="B437" s="25"/>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
       <c r="E437" s="11"/>
@@ -42251,7 +42387,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="13"/>
-      <c r="B438" s="26"/>
+      <c r="B438" s="25"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
@@ -42279,7 +42415,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="13"/>
-      <c r="B439" s="26"/>
+      <c r="B439" s="25"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
@@ -42307,7 +42443,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="13"/>
-      <c r="B440" s="26"/>
+      <c r="B440" s="25"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
@@ -42335,7 +42471,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="13"/>
-      <c r="B441" s="26"/>
+      <c r="B441" s="25"/>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
@@ -42363,7 +42499,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="13"/>
-      <c r="B442" s="26"/>
+      <c r="B442" s="25"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
       <c r="E442" s="11"/>
@@ -42391,7 +42527,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="13"/>
-      <c r="B443" s="26"/>
+      <c r="B443" s="25"/>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
       <c r="E443" s="11"/>
@@ -42419,7 +42555,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="13"/>
-      <c r="B444" s="26"/>
+      <c r="B444" s="25"/>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
       <c r="E444" s="11"/>
@@ -42447,7 +42583,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="13"/>
-      <c r="B445" s="26"/>
+      <c r="B445" s="25"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
       <c r="E445" s="11"/>
@@ -42475,7 +42611,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="13"/>
-      <c r="B446" s="26"/>
+      <c r="B446" s="25"/>
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
@@ -42503,7 +42639,7 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="13"/>
-      <c r="B447" s="26"/>
+      <c r="B447" s="25"/>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
@@ -42531,7 +42667,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="13"/>
-      <c r="B448" s="26"/>
+      <c r="B448" s="25"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
@@ -42559,7 +42695,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="13"/>
-      <c r="B449" s="26"/>
+      <c r="B449" s="25"/>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
@@ -42587,7 +42723,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="13"/>
-      <c r="B450" s="26"/>
+      <c r="B450" s="25"/>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
       <c r="E450" s="11"/>
@@ -42615,7 +42751,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="13"/>
-      <c r="B451" s="26"/>
+      <c r="B451" s="25"/>
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
@@ -42643,7 +42779,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="13"/>
-      <c r="B452" s="26"/>
+      <c r="B452" s="25"/>
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
@@ -42671,7 +42807,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="13"/>
-      <c r="B453" s="26"/>
+      <c r="B453" s="25"/>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
@@ -42699,7 +42835,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="13"/>
-      <c r="B454" s="26"/>
+      <c r="B454" s="25"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
@@ -42727,7 +42863,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="13"/>
-      <c r="B455" s="26"/>
+      <c r="B455" s="25"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
@@ -42755,7 +42891,7 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="13"/>
-      <c r="B456" s="26"/>
+      <c r="B456" s="25"/>
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
@@ -42783,7 +42919,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="13"/>
-      <c r="B457" s="26"/>
+      <c r="B457" s="25"/>
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
       <c r="E457" s="11"/>
@@ -42811,7 +42947,7 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="13"/>
-      <c r="B458" s="26"/>
+      <c r="B458" s="25"/>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
       <c r="E458" s="11"/>
@@ -42839,7 +42975,7 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="13"/>
-      <c r="B459" s="26"/>
+      <c r="B459" s="25"/>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
       <c r="E459" s="11"/>
@@ -42867,7 +43003,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="13"/>
-      <c r="B460" s="26"/>
+      <c r="B460" s="25"/>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
       <c r="E460" s="11"/>
@@ -42895,7 +43031,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="13"/>
-      <c r="B461" s="26"/>
+      <c r="B461" s="25"/>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
       <c r="E461" s="11"/>
@@ -42923,7 +43059,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="13"/>
-      <c r="B462" s="26"/>
+      <c r="B462" s="25"/>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
       <c r="E462" s="11"/>
@@ -42951,7 +43087,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="13"/>
-      <c r="B463" s="26"/>
+      <c r="B463" s="25"/>
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
       <c r="E463" s="11"/>
@@ -42979,7 +43115,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="13"/>
-      <c r="B464" s="26"/>
+      <c r="B464" s="25"/>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
       <c r="E464" s="11"/>
@@ -43007,7 +43143,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="13"/>
-      <c r="B465" s="26"/>
+      <c r="B465" s="25"/>
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
       <c r="E465" s="11"/>
@@ -43035,7 +43171,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="13"/>
-      <c r="B466" s="26"/>
+      <c r="B466" s="25"/>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
       <c r="E466" s="11"/>
@@ -43063,7 +43199,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="13"/>
-      <c r="B467" s="26"/>
+      <c r="B467" s="25"/>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
       <c r="E467" s="11"/>
@@ -43091,7 +43227,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="13"/>
-      <c r="B468" s="26"/>
+      <c r="B468" s="25"/>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
       <c r="E468" s="11"/>
@@ -43119,7 +43255,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="13"/>
-      <c r="B469" s="26"/>
+      <c r="B469" s="25"/>
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
       <c r="E469" s="11"/>
@@ -43147,7 +43283,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="13"/>
-      <c r="B470" s="26"/>
+      <c r="B470" s="25"/>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
       <c r="E470" s="11"/>
@@ -43175,7 +43311,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="13"/>
-      <c r="B471" s="26"/>
+      <c r="B471" s="25"/>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
       <c r="E471" s="11"/>
@@ -43203,7 +43339,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="13"/>
-      <c r="B472" s="26"/>
+      <c r="B472" s="25"/>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
       <c r="E472" s="11"/>
@@ -43231,7 +43367,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="13"/>
-      <c r="B473" s="26"/>
+      <c r="B473" s="25"/>
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
       <c r="E473" s="11"/>
@@ -43259,7 +43395,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="13"/>
-      <c r="B474" s="26"/>
+      <c r="B474" s="25"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
       <c r="E474" s="11"/>
@@ -43287,7 +43423,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="13"/>
-      <c r="B475" s="26"/>
+      <c r="B475" s="25"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
       <c r="E475" s="11"/>
@@ -43315,7 +43451,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="13"/>
-      <c r="B476" s="26"/>
+      <c r="B476" s="25"/>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
       <c r="E476" s="11"/>
@@ -43343,7 +43479,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="13"/>
-      <c r="B477" s="26"/>
+      <c r="B477" s="25"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
       <c r="E477" s="11"/>
@@ -43371,7 +43507,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="13"/>
-      <c r="B478" s="26"/>
+      <c r="B478" s="25"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
       <c r="E478" s="11"/>
@@ -43399,7 +43535,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="13"/>
-      <c r="B479" s="26"/>
+      <c r="B479" s="25"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
@@ -43427,7 +43563,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="13"/>
-      <c r="B480" s="26"/>
+      <c r="B480" s="25"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
       <c r="E480" s="11"/>
@@ -43455,7 +43591,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="13"/>
-      <c r="B481" s="26"/>
+      <c r="B481" s="25"/>
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
       <c r="E481" s="11"/>
@@ -43483,7 +43619,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="13"/>
-      <c r="B482" s="26"/>
+      <c r="B482" s="25"/>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
       <c r="E482" s="11"/>
@@ -43511,7 +43647,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="13"/>
-      <c r="B483" s="26"/>
+      <c r="B483" s="25"/>
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
       <c r="E483" s="11"/>
@@ -43539,7 +43675,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="13"/>
-      <c r="B484" s="26"/>
+      <c r="B484" s="25"/>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
       <c r="E484" s="11"/>
@@ -43567,7 +43703,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="13"/>
-      <c r="B485" s="26"/>
+      <c r="B485" s="25"/>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
       <c r="E485" s="11"/>
@@ -43595,7 +43731,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="13"/>
-      <c r="B486" s="26"/>
+      <c r="B486" s="25"/>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
       <c r="E486" s="11"/>
@@ -43623,7 +43759,7 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="13"/>
-      <c r="B487" s="26"/>
+      <c r="B487" s="25"/>
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
       <c r="E487" s="11"/>
@@ -43651,7 +43787,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="13"/>
-      <c r="B488" s="26"/>
+      <c r="B488" s="25"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
       <c r="E488" s="11"/>
@@ -43679,7 +43815,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="13"/>
-      <c r="B489" s="26"/>
+      <c r="B489" s="25"/>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
       <c r="E489" s="11"/>
@@ -43707,7 +43843,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="13"/>
-      <c r="B490" s="26"/>
+      <c r="B490" s="25"/>
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
@@ -43735,7 +43871,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="13"/>
-      <c r="B491" s="26"/>
+      <c r="B491" s="25"/>
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
@@ -43763,7 +43899,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="13"/>
-      <c r="B492" s="26"/>
+      <c r="B492" s="25"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
@@ -43791,7 +43927,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="13"/>
-      <c r="B493" s="26"/>
+      <c r="B493" s="25"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
@@ -43819,7 +43955,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="13"/>
-      <c r="B494" s="26"/>
+      <c r="B494" s="25"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
@@ -43847,7 +43983,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="13"/>
-      <c r="B495" s="26"/>
+      <c r="B495" s="25"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
@@ -43875,7 +44011,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="13"/>
-      <c r="B496" s="26"/>
+      <c r="B496" s="25"/>
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
       <c r="E496" s="11"/>
@@ -43903,7 +44039,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="13"/>
-      <c r="B497" s="26"/>
+      <c r="B497" s="25"/>
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
       <c r="E497" s="11"/>
@@ -43931,7 +44067,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="13"/>
-      <c r="B498" s="26"/>
+      <c r="B498" s="25"/>
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
@@ -43959,7 +44095,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="13"/>
-      <c r="B499" s="26"/>
+      <c r="B499" s="25"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
@@ -43987,7 +44123,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="13"/>
-      <c r="B500" s="26"/>
+      <c r="B500" s="25"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
@@ -44015,7 +44151,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="13"/>
-      <c r="B501" s="26"/>
+      <c r="B501" s="25"/>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
       <c r="E501" s="11"/>
@@ -44043,7 +44179,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="13"/>
-      <c r="B502" s="26"/>
+      <c r="B502" s="25"/>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
       <c r="E502" s="11"/>
@@ -44071,7 +44207,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="13"/>
-      <c r="B503" s="26"/>
+      <c r="B503" s="25"/>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
       <c r="E503" s="11"/>
@@ -44099,7 +44235,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="13"/>
-      <c r="B504" s="26"/>
+      <c r="B504" s="25"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
@@ -44127,7 +44263,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="13"/>
-      <c r="B505" s="26"/>
+      <c r="B505" s="25"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
@@ -44155,7 +44291,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="13"/>
-      <c r="B506" s="26"/>
+      <c r="B506" s="25"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
@@ -44183,7 +44319,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="13"/>
-      <c r="B507" s="26"/>
+      <c r="B507" s="25"/>
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
       <c r="E507" s="11"/>
@@ -44211,7 +44347,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="13"/>
-      <c r="B508" s="26"/>
+      <c r="B508" s="25"/>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
       <c r="E508" s="11"/>
@@ -44239,7 +44375,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="13"/>
-      <c r="B509" s="26"/>
+      <c r="B509" s="25"/>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
@@ -44267,7 +44403,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="13"/>
-      <c r="B510" s="26"/>
+      <c r="B510" s="25"/>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
       <c r="E510" s="11"/>
@@ -44295,7 +44431,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="13"/>
-      <c r="B511" s="26"/>
+      <c r="B511" s="25"/>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
       <c r="E511" s="11"/>
@@ -44323,7 +44459,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="13"/>
-      <c r="B512" s="26"/>
+      <c r="B512" s="25"/>
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
       <c r="E512" s="11"/>
@@ -44351,7 +44487,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="13"/>
-      <c r="B513" s="26"/>
+      <c r="B513" s="25"/>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
       <c r="E513" s="11"/>
@@ -44379,7 +44515,7 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="13"/>
-      <c r="B514" s="26"/>
+      <c r="B514" s="25"/>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
       <c r="E514" s="11"/>
@@ -44407,7 +44543,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="13"/>
-      <c r="B515" s="26"/>
+      <c r="B515" s="25"/>
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
       <c r="E515" s="11"/>
@@ -44435,7 +44571,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="13"/>
-      <c r="B516" s="26"/>
+      <c r="B516" s="25"/>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
       <c r="E516" s="11"/>
@@ -44463,7 +44599,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="13"/>
-      <c r="B517" s="26"/>
+      <c r="B517" s="25"/>
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
       <c r="E517" s="11"/>
@@ -44491,7 +44627,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="13"/>
-      <c r="B518" s="26"/>
+      <c r="B518" s="25"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
@@ -44519,7 +44655,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="13"/>
-      <c r="B519" s="26"/>
+      <c r="B519" s="25"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
@@ -44547,7 +44683,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="13"/>
-      <c r="B520" s="26"/>
+      <c r="B520" s="25"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
@@ -44575,7 +44711,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="13"/>
-      <c r="B521" s="26"/>
+      <c r="B521" s="25"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
@@ -44603,7 +44739,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="13"/>
-      <c r="B522" s="26"/>
+      <c r="B522" s="25"/>
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
       <c r="E522" s="11"/>
@@ -44631,7 +44767,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="13"/>
-      <c r="B523" s="26"/>
+      <c r="B523" s="25"/>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
       <c r="E523" s="11"/>
@@ -44659,7 +44795,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="13"/>
-      <c r="B524" s="26"/>
+      <c r="B524" s="25"/>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
       <c r="E524" s="11"/>
@@ -44687,7 +44823,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="13"/>
-      <c r="B525" s="26"/>
+      <c r="B525" s="25"/>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
       <c r="E525" s="11"/>
@@ -44715,7 +44851,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="13"/>
-      <c r="B526" s="26"/>
+      <c r="B526" s="25"/>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
@@ -44743,7 +44879,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="13"/>
-      <c r="B527" s="26"/>
+      <c r="B527" s="25"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
@@ -44771,7 +44907,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="13"/>
-      <c r="B528" s="26"/>
+      <c r="B528" s="25"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
@@ -44799,7 +44935,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="13"/>
-      <c r="B529" s="26"/>
+      <c r="B529" s="25"/>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
@@ -44827,7 +44963,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="13"/>
-      <c r="B530" s="26"/>
+      <c r="B530" s="25"/>
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
@@ -44855,7 +44991,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="13"/>
-      <c r="B531" s="26"/>
+      <c r="B531" s="25"/>
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
       <c r="E531" s="11"/>
@@ -44883,7 +45019,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="13"/>
-      <c r="B532" s="26"/>
+      <c r="B532" s="25"/>
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
       <c r="E532" s="11"/>
@@ -44911,7 +45047,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="13"/>
-      <c r="B533" s="26"/>
+      <c r="B533" s="25"/>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
       <c r="E533" s="11"/>
@@ -44939,7 +45075,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="13"/>
-      <c r="B534" s="26"/>
+      <c r="B534" s="25"/>
       <c r="C534" s="11"/>
       <c r="D534" s="11"/>
       <c r="E534" s="11"/>
@@ -44967,7 +45103,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="13"/>
-      <c r="B535" s="26"/>
+      <c r="B535" s="25"/>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
       <c r="E535" s="11"/>
@@ -44995,7 +45131,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="13"/>
-      <c r="B536" s="26"/>
+      <c r="B536" s="25"/>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
       <c r="E536" s="11"/>
@@ -45023,7 +45159,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="13"/>
-      <c r="B537" s="26"/>
+      <c r="B537" s="25"/>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
       <c r="E537" s="11"/>
@@ -45051,7 +45187,7 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="13"/>
-      <c r="B538" s="26"/>
+      <c r="B538" s="25"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
       <c r="E538" s="11"/>
@@ -45079,7 +45215,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="13"/>
-      <c r="B539" s="26"/>
+      <c r="B539" s="25"/>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
@@ -45107,7 +45243,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="13"/>
-      <c r="B540" s="26"/>
+      <c r="B540" s="25"/>
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
       <c r="E540" s="11"/>
@@ -45135,7 +45271,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="13"/>
-      <c r="B541" s="26"/>
+      <c r="B541" s="25"/>
       <c r="C541" s="11"/>
       <c r="D541" s="11"/>
       <c r="E541" s="11"/>
@@ -45163,7 +45299,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="13"/>
-      <c r="B542" s="26"/>
+      <c r="B542" s="25"/>
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
       <c r="E542" s="11"/>
@@ -45191,7 +45327,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="13"/>
-      <c r="B543" s="26"/>
+      <c r="B543" s="25"/>
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
       <c r="E543" s="11"/>
@@ -45219,7 +45355,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="13"/>
-      <c r="B544" s="26"/>
+      <c r="B544" s="25"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
       <c r="E544" s="11"/>
@@ -45247,7 +45383,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="13"/>
-      <c r="B545" s="26"/>
+      <c r="B545" s="25"/>
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
       <c r="E545" s="11"/>
@@ -45275,7 +45411,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="13"/>
-      <c r="B546" s="26"/>
+      <c r="B546" s="25"/>
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
       <c r="E546" s="11"/>
@@ -45303,7 +45439,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="13"/>
-      <c r="B547" s="26"/>
+      <c r="B547" s="25"/>
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
       <c r="E547" s="11"/>
@@ -45331,7 +45467,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="13"/>
-      <c r="B548" s="26"/>
+      <c r="B548" s="25"/>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
       <c r="E548" s="11"/>
@@ -45359,7 +45495,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="13"/>
-      <c r="B549" s="26"/>
+      <c r="B549" s="25"/>
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
       <c r="E549" s="11"/>
@@ -45387,7 +45523,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="13"/>
-      <c r="B550" s="26"/>
+      <c r="B550" s="25"/>
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
       <c r="E550" s="11"/>
@@ -45415,7 +45551,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="13"/>
-      <c r="B551" s="26"/>
+      <c r="B551" s="25"/>
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
       <c r="E551" s="11"/>
@@ -45443,7 +45579,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="13"/>
-      <c r="B552" s="26"/>
+      <c r="B552" s="25"/>
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
       <c r="E552" s="11"/>
@@ -45471,7 +45607,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="13"/>
-      <c r="B553" s="26"/>
+      <c r="B553" s="25"/>
       <c r="C553" s="11"/>
       <c r="D553" s="11"/>
       <c r="E553" s="11"/>
@@ -45499,7 +45635,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="13"/>
-      <c r="B554" s="26"/>
+      <c r="B554" s="25"/>
       <c r="C554" s="11"/>
       <c r="D554" s="11"/>
       <c r="E554" s="11"/>
@@ -45527,7 +45663,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="13"/>
-      <c r="B555" s="26"/>
+      <c r="B555" s="25"/>
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
@@ -45555,7 +45691,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="13"/>
-      <c r="B556" s="26"/>
+      <c r="B556" s="25"/>
       <c r="C556" s="11"/>
       <c r="D556" s="11"/>
       <c r="E556" s="11"/>
@@ -45583,7 +45719,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="13"/>
-      <c r="B557" s="26"/>
+      <c r="B557" s="25"/>
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
       <c r="E557" s="11"/>
@@ -45611,7 +45747,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="13"/>
-      <c r="B558" s="26"/>
+      <c r="B558" s="25"/>
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
@@ -45639,7 +45775,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="13"/>
-      <c r="B559" s="26"/>
+      <c r="B559" s="25"/>
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
@@ -45667,7 +45803,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="13"/>
-      <c r="B560" s="26"/>
+      <c r="B560" s="25"/>
       <c r="C560" s="11"/>
       <c r="D560" s="11"/>
       <c r="E560" s="11"/>
@@ -45695,7 +45831,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="13"/>
-      <c r="B561" s="26"/>
+      <c r="B561" s="25"/>
       <c r="C561" s="11"/>
       <c r="D561" s="11"/>
       <c r="E561" s="11"/>
@@ -45723,7 +45859,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="13"/>
-      <c r="B562" s="26"/>
+      <c r="B562" s="25"/>
       <c r="C562" s="11"/>
       <c r="D562" s="11"/>
       <c r="E562" s="11"/>
@@ -45751,7 +45887,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="13"/>
-      <c r="B563" s="26"/>
+      <c r="B563" s="25"/>
       <c r="C563" s="11"/>
       <c r="D563" s="11"/>
       <c r="E563" s="11"/>
@@ -45779,7 +45915,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="13"/>
-      <c r="B564" s="26"/>
+      <c r="B564" s="25"/>
       <c r="C564" s="11"/>
       <c r="D564" s="11"/>
       <c r="E564" s="11"/>
@@ -45807,7 +45943,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="13"/>
-      <c r="B565" s="26"/>
+      <c r="B565" s="25"/>
       <c r="C565" s="11"/>
       <c r="D565" s="11"/>
       <c r="E565" s="11"/>
@@ -45835,7 +45971,7 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="13"/>
-      <c r="B566" s="26"/>
+      <c r="B566" s="25"/>
       <c r="C566" s="11"/>
       <c r="D566" s="11"/>
       <c r="E566" s="11"/>
@@ -45863,7 +45999,7 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="13"/>
-      <c r="B567" s="26"/>
+      <c r="B567" s="25"/>
       <c r="C567" s="11"/>
       <c r="D567" s="11"/>
       <c r="E567" s="11"/>
@@ -45891,7 +46027,7 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="13"/>
-      <c r="B568" s="26"/>
+      <c r="B568" s="25"/>
       <c r="C568" s="11"/>
       <c r="D568" s="11"/>
       <c r="E568" s="11"/>
@@ -45919,7 +46055,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="13"/>
-      <c r="B569" s="26"/>
+      <c r="B569" s="25"/>
       <c r="C569" s="11"/>
       <c r="D569" s="11"/>
       <c r="E569" s="11"/>
@@ -45947,7 +46083,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="13"/>
-      <c r="B570" s="26"/>
+      <c r="B570" s="25"/>
       <c r="C570" s="11"/>
       <c r="D570" s="11"/>
       <c r="E570" s="11"/>
@@ -45975,7 +46111,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="13"/>
-      <c r="B571" s="26"/>
+      <c r="B571" s="25"/>
       <c r="C571" s="11"/>
       <c r="D571" s="11"/>
       <c r="E571" s="11"/>
@@ -46003,7 +46139,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="13"/>
-      <c r="B572" s="26"/>
+      <c r="B572" s="25"/>
       <c r="C572" s="11"/>
       <c r="D572" s="11"/>
       <c r="E572" s="11"/>
@@ -46031,7 +46167,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="13"/>
-      <c r="B573" s="26"/>
+      <c r="B573" s="25"/>
       <c r="C573" s="11"/>
       <c r="D573" s="11"/>
       <c r="E573" s="11"/>
@@ -46059,7 +46195,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="13"/>
-      <c r="B574" s="26"/>
+      <c r="B574" s="25"/>
       <c r="C574" s="11"/>
       <c r="D574" s="11"/>
       <c r="E574" s="11"/>
@@ -46087,7 +46223,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="13"/>
-      <c r="B575" s="26"/>
+      <c r="B575" s="25"/>
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
@@ -46115,7 +46251,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="13"/>
-      <c r="B576" s="26"/>
+      <c r="B576" s="25"/>
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
       <c r="E576" s="11"/>
@@ -46143,7 +46279,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="13"/>
-      <c r="B577" s="26"/>
+      <c r="B577" s="25"/>
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
       <c r="E577" s="11"/>
@@ -46171,7 +46307,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="13"/>
-      <c r="B578" s="26"/>
+      <c r="B578" s="25"/>
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
@@ -46199,7 +46335,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="13"/>
-      <c r="B579" s="26"/>
+      <c r="B579" s="25"/>
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
@@ -46227,7 +46363,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="13"/>
-      <c r="B580" s="26"/>
+      <c r="B580" s="25"/>
       <c r="C580" s="11"/>
       <c r="D580" s="11"/>
       <c r="E580" s="11"/>
@@ -46255,7 +46391,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="13"/>
-      <c r="B581" s="26"/>
+      <c r="B581" s="25"/>
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
       <c r="E581" s="11"/>
@@ -46283,7 +46419,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="13"/>
-      <c r="B582" s="26"/>
+      <c r="B582" s="25"/>
       <c r="C582" s="11"/>
       <c r="D582" s="11"/>
       <c r="E582" s="11"/>
@@ -46311,7 +46447,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="13"/>
-      <c r="B583" s="26"/>
+      <c r="B583" s="25"/>
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
       <c r="E583" s="11"/>
@@ -46339,7 +46475,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="13"/>
-      <c r="B584" s="26"/>
+      <c r="B584" s="25"/>
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
       <c r="E584" s="11"/>
@@ -46367,7 +46503,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="13"/>
-      <c r="B585" s="26"/>
+      <c r="B585" s="25"/>
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
       <c r="E585" s="11"/>
@@ -46395,7 +46531,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="13"/>
-      <c r="B586" s="26"/>
+      <c r="B586" s="25"/>
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
       <c r="E586" s="11"/>
@@ -46423,7 +46559,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="13"/>
-      <c r="B587" s="26"/>
+      <c r="B587" s="25"/>
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
       <c r="E587" s="11"/>
@@ -46451,7 +46587,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="13"/>
-      <c r="B588" s="26"/>
+      <c r="B588" s="25"/>
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
       <c r="E588" s="11"/>
@@ -46479,7 +46615,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="13"/>
-      <c r="B589" s="26"/>
+      <c r="B589" s="25"/>
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
       <c r="E589" s="11"/>
@@ -46507,7 +46643,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="13"/>
-      <c r="B590" s="26"/>
+      <c r="B590" s="25"/>
       <c r="C590" s="11"/>
       <c r="D590" s="11"/>
       <c r="E590" s="11"/>
@@ -46535,7 +46671,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="13"/>
-      <c r="B591" s="26"/>
+      <c r="B591" s="25"/>
       <c r="C591" s="11"/>
       <c r="D591" s="11"/>
       <c r="E591" s="11"/>
@@ -46563,7 +46699,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="13"/>
-      <c r="B592" s="26"/>
+      <c r="B592" s="25"/>
       <c r="C592" s="11"/>
       <c r="D592" s="11"/>
       <c r="E592" s="11"/>
@@ -46591,7 +46727,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="13"/>
-      <c r="B593" s="26"/>
+      <c r="B593" s="25"/>
       <c r="C593" s="11"/>
       <c r="D593" s="11"/>
       <c r="E593" s="11"/>
@@ -46619,7 +46755,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="13"/>
-      <c r="B594" s="26"/>
+      <c r="B594" s="25"/>
       <c r="C594" s="11"/>
       <c r="D594" s="11"/>
       <c r="E594" s="11"/>
@@ -46647,7 +46783,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="13"/>
-      <c r="B595" s="26"/>
+      <c r="B595" s="25"/>
       <c r="C595" s="11"/>
       <c r="D595" s="11"/>
       <c r="E595" s="11"/>
@@ -46675,7 +46811,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="13"/>
-      <c r="B596" s="26"/>
+      <c r="B596" s="25"/>
       <c r="C596" s="11"/>
       <c r="D596" s="11"/>
       <c r="E596" s="11"/>
@@ -46703,7 +46839,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="13"/>
-      <c r="B597" s="26"/>
+      <c r="B597" s="25"/>
       <c r="C597" s="11"/>
       <c r="D597" s="11"/>
       <c r="E597" s="11"/>
@@ -46731,7 +46867,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="13"/>
-      <c r="B598" s="26"/>
+      <c r="B598" s="25"/>
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
@@ -46759,7 +46895,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="13"/>
-      <c r="B599" s="26"/>
+      <c r="B599" s="25"/>
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
       <c r="E599" s="11"/>
@@ -46787,7 +46923,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="13"/>
-      <c r="B600" s="26"/>
+      <c r="B600" s="25"/>
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
@@ -46815,7 +46951,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="13"/>
-      <c r="B601" s="26"/>
+      <c r="B601" s="25"/>
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
@@ -46843,7 +46979,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="13"/>
-      <c r="B602" s="26"/>
+      <c r="B602" s="25"/>
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
@@ -46871,7 +47007,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="13"/>
-      <c r="B603" s="26"/>
+      <c r="B603" s="25"/>
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
@@ -46899,7 +47035,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="13"/>
-      <c r="B604" s="26"/>
+      <c r="B604" s="25"/>
       <c r="C604" s="11"/>
       <c r="D604" s="11"/>
       <c r="E604" s="11"/>
@@ -46927,7 +47063,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="13"/>
-      <c r="B605" s="26"/>
+      <c r="B605" s="25"/>
       <c r="C605" s="11"/>
       <c r="D605" s="11"/>
       <c r="E605" s="11"/>
@@ -46955,7 +47091,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="13"/>
-      <c r="B606" s="26"/>
+      <c r="B606" s="25"/>
       <c r="C606" s="11"/>
       <c r="D606" s="11"/>
       <c r="E606" s="11"/>
@@ -46983,7 +47119,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="13"/>
-      <c r="B607" s="26"/>
+      <c r="B607" s="25"/>
       <c r="C607" s="11"/>
       <c r="D607" s="11"/>
       <c r="E607" s="11"/>
@@ -47011,7 +47147,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="13"/>
-      <c r="B608" s="26"/>
+      <c r="B608" s="25"/>
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
@@ -47039,7 +47175,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="13"/>
-      <c r="B609" s="26"/>
+      <c r="B609" s="25"/>
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
@@ -47067,7 +47203,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="13"/>
-      <c r="B610" s="26"/>
+      <c r="B610" s="25"/>
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
@@ -47095,7 +47231,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="13"/>
-      <c r="B611" s="26"/>
+      <c r="B611" s="25"/>
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
@@ -47123,7 +47259,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="13"/>
-      <c r="B612" s="26"/>
+      <c r="B612" s="25"/>
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
@@ -47151,7 +47287,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="13"/>
-      <c r="B613" s="26"/>
+      <c r="B613" s="25"/>
       <c r="C613" s="11"/>
       <c r="D613" s="11"/>
       <c r="E613" s="11"/>
@@ -47179,7 +47315,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="13"/>
-      <c r="B614" s="26"/>
+      <c r="B614" s="25"/>
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
@@ -47207,7 +47343,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="13"/>
-      <c r="B615" s="26"/>
+      <c r="B615" s="25"/>
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
       <c r="E615" s="11"/>
@@ -47235,7 +47371,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="13"/>
-      <c r="B616" s="26"/>
+      <c r="B616" s="25"/>
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
@@ -47263,7 +47399,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="13"/>
-      <c r="B617" s="26"/>
+      <c r="B617" s="25"/>
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
@@ -47291,7 +47427,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="13"/>
-      <c r="B618" s="26"/>
+      <c r="B618" s="25"/>
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
@@ -47319,7 +47455,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="13"/>
-      <c r="B619" s="26"/>
+      <c r="B619" s="25"/>
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
@@ -47347,7 +47483,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="13"/>
-      <c r="B620" s="26"/>
+      <c r="B620" s="25"/>
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
@@ -47375,7 +47511,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="13"/>
-      <c r="B621" s="26"/>
+      <c r="B621" s="25"/>
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
@@ -47403,7 +47539,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="13"/>
-      <c r="B622" s="26"/>
+      <c r="B622" s="25"/>
       <c r="C622" s="11"/>
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
@@ -47431,7 +47567,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="13"/>
-      <c r="B623" s="26"/>
+      <c r="B623" s="25"/>
       <c r="C623" s="11"/>
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
@@ -47459,7 +47595,7 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="13"/>
-      <c r="B624" s="26"/>
+      <c r="B624" s="25"/>
       <c r="C624" s="11"/>
       <c r="D624" s="11"/>
       <c r="E624" s="11"/>
@@ -47487,7 +47623,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="13"/>
-      <c r="B625" s="26"/>
+      <c r="B625" s="25"/>
       <c r="C625" s="11"/>
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
@@ -47515,7 +47651,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="13"/>
-      <c r="B626" s="26"/>
+      <c r="B626" s="25"/>
       <c r="C626" s="11"/>
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
@@ -47543,7 +47679,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="13"/>
-      <c r="B627" s="26"/>
+      <c r="B627" s="25"/>
       <c r="C627" s="11"/>
       <c r="D627" s="11"/>
       <c r="E627" s="11"/>
@@ -47571,7 +47707,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="13"/>
-      <c r="B628" s="26"/>
+      <c r="B628" s="25"/>
       <c r="C628" s="11"/>
       <c r="D628" s="11"/>
       <c r="E628" s="11"/>
@@ -47599,7 +47735,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="13"/>
-      <c r="B629" s="26"/>
+      <c r="B629" s="25"/>
       <c r="C629" s="11"/>
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
@@ -47627,7 +47763,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="13"/>
-      <c r="B630" s="26"/>
+      <c r="B630" s="25"/>
       <c r="C630" s="11"/>
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
@@ -47655,7 +47791,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="13"/>
-      <c r="B631" s="26"/>
+      <c r="B631" s="25"/>
       <c r="C631" s="11"/>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
@@ -47683,7 +47819,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="13"/>
-      <c r="B632" s="26"/>
+      <c r="B632" s="25"/>
       <c r="C632" s="11"/>
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
@@ -47711,7 +47847,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="13"/>
-      <c r="B633" s="26"/>
+      <c r="B633" s="25"/>
       <c r="C633" s="11"/>
       <c r="D633" s="11"/>
       <c r="E633" s="11"/>
@@ -47739,7 +47875,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="13"/>
-      <c r="B634" s="26"/>
+      <c r="B634" s="25"/>
       <c r="C634" s="11"/>
       <c r="D634" s="11"/>
       <c r="E634" s="11"/>
@@ -47767,7 +47903,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="13"/>
-      <c r="B635" s="26"/>
+      <c r="B635" s="25"/>
       <c r="C635" s="11"/>
       <c r="D635" s="11"/>
       <c r="E635" s="11"/>
@@ -47795,7 +47931,7 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="13"/>
-      <c r="B636" s="26"/>
+      <c r="B636" s="25"/>
       <c r="C636" s="11"/>
       <c r="D636" s="11"/>
       <c r="E636" s="11"/>
@@ -47823,7 +47959,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="13"/>
-      <c r="B637" s="26"/>
+      <c r="B637" s="25"/>
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
@@ -47851,7 +47987,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="13"/>
-      <c r="B638" s="26"/>
+      <c r="B638" s="25"/>
       <c r="C638" s="11"/>
       <c r="D638" s="11"/>
       <c r="E638" s="11"/>
@@ -47879,7 +48015,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="13"/>
-      <c r="B639" s="26"/>
+      <c r="B639" s="25"/>
       <c r="C639" s="11"/>
       <c r="D639" s="11"/>
       <c r="E639" s="11"/>
@@ -47907,7 +48043,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="13"/>
-      <c r="B640" s="26"/>
+      <c r="B640" s="25"/>
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
@@ -47935,7 +48071,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="13"/>
-      <c r="B641" s="26"/>
+      <c r="B641" s="25"/>
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
@@ -47963,7 +48099,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="13"/>
-      <c r="B642" s="26"/>
+      <c r="B642" s="25"/>
       <c r="C642" s="11"/>
       <c r="D642" s="11"/>
       <c r="E642" s="11"/>
@@ -47991,7 +48127,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="13"/>
-      <c r="B643" s="26"/>
+      <c r="B643" s="25"/>
       <c r="C643" s="11"/>
       <c r="D643" s="11"/>
       <c r="E643" s="11"/>
@@ -48019,7 +48155,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="13"/>
-      <c r="B644" s="26"/>
+      <c r="B644" s="25"/>
       <c r="C644" s="11"/>
       <c r="D644" s="11"/>
       <c r="E644" s="11"/>
@@ -48047,7 +48183,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="13"/>
-      <c r="B645" s="26"/>
+      <c r="B645" s="25"/>
       <c r="C645" s="11"/>
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
@@ -48075,7 +48211,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="13"/>
-      <c r="B646" s="26"/>
+      <c r="B646" s="25"/>
       <c r="C646" s="11"/>
       <c r="D646" s="11"/>
       <c r="E646" s="11"/>
@@ -48103,7 +48239,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="13"/>
-      <c r="B647" s="26"/>
+      <c r="B647" s="25"/>
       <c r="C647" s="11"/>
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
@@ -48131,7 +48267,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="13"/>
-      <c r="B648" s="26"/>
+      <c r="B648" s="25"/>
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
@@ -48159,7 +48295,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="13"/>
-      <c r="B649" s="26"/>
+      <c r="B649" s="25"/>
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
@@ -48187,7 +48323,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="13"/>
-      <c r="B650" s="26"/>
+      <c r="B650" s="25"/>
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
@@ -48215,7 +48351,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="13"/>
-      <c r="B651" s="26"/>
+      <c r="B651" s="25"/>
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
@@ -48243,7 +48379,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="13"/>
-      <c r="B652" s="26"/>
+      <c r="B652" s="25"/>
       <c r="C652" s="11"/>
       <c r="D652" s="11"/>
       <c r="E652" s="11"/>
@@ -48271,7 +48407,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="13"/>
-      <c r="B653" s="26"/>
+      <c r="B653" s="25"/>
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
@@ -48299,7 +48435,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="13"/>
-      <c r="B654" s="26"/>
+      <c r="B654" s="25"/>
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
@@ -48327,7 +48463,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="13"/>
-      <c r="B655" s="26"/>
+      <c r="B655" s="25"/>
       <c r="C655" s="11"/>
       <c r="D655" s="11"/>
       <c r="E655" s="11"/>
@@ -48355,7 +48491,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="13"/>
-      <c r="B656" s="26"/>
+      <c r="B656" s="25"/>
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
@@ -48383,7 +48519,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="13"/>
-      <c r="B657" s="26"/>
+      <c r="B657" s="25"/>
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
@@ -48411,7 +48547,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="13"/>
-      <c r="B658" s="26"/>
+      <c r="B658" s="25"/>
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
@@ -48439,7 +48575,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="13"/>
-      <c r="B659" s="26"/>
+      <c r="B659" s="25"/>
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
@@ -48467,7 +48603,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="13"/>
-      <c r="B660" s="26"/>
+      <c r="B660" s="25"/>
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
@@ -48495,7 +48631,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="13"/>
-      <c r="B661" s="26"/>
+      <c r="B661" s="25"/>
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
       <c r="E661" s="11"/>
@@ -48523,7 +48659,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="13"/>
-      <c r="B662" s="26"/>
+      <c r="B662" s="25"/>
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
@@ -48551,7 +48687,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="13"/>
-      <c r="B663" s="26"/>
+      <c r="B663" s="25"/>
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
@@ -48579,7 +48715,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="13"/>
-      <c r="B664" s="26"/>
+      <c r="B664" s="25"/>
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
@@ -48607,7 +48743,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="13"/>
-      <c r="B665" s="26"/>
+      <c r="B665" s="25"/>
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
@@ -48635,7 +48771,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="13"/>
-      <c r="B666" s="26"/>
+      <c r="B666" s="25"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
@@ -48663,7 +48799,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="13"/>
-      <c r="B667" s="26"/>
+      <c r="B667" s="25"/>
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
@@ -48691,7 +48827,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="13"/>
-      <c r="B668" s="26"/>
+      <c r="B668" s="25"/>
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
@@ -48719,7 +48855,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="13"/>
-      <c r="B669" s="26"/>
+      <c r="B669" s="25"/>
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
@@ -48747,7 +48883,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="13"/>
-      <c r="B670" s="26"/>
+      <c r="B670" s="25"/>
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
@@ -48775,7 +48911,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="13"/>
-      <c r="B671" s="26"/>
+      <c r="B671" s="25"/>
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
@@ -48803,7 +48939,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="13"/>
-      <c r="B672" s="26"/>
+      <c r="B672" s="25"/>
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
@@ -48831,7 +48967,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="13"/>
-      <c r="B673" s="26"/>
+      <c r="B673" s="25"/>
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
@@ -48859,7 +48995,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="13"/>
-      <c r="B674" s="26"/>
+      <c r="B674" s="25"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
@@ -48887,7 +49023,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="13"/>
-      <c r="B675" s="26"/>
+      <c r="B675" s="25"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -48915,7 +49051,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="13"/>
-      <c r="B676" s="26"/>
+      <c r="B676" s="25"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
@@ -48943,7 +49079,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="13"/>
-      <c r="B677" s="26"/>
+      <c r="B677" s="25"/>
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
@@ -48971,7 +49107,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="13"/>
-      <c r="B678" s="26"/>
+      <c r="B678" s="25"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
@@ -48999,7 +49135,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="13"/>
-      <c r="B679" s="26"/>
+      <c r="B679" s="25"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
@@ -49027,7 +49163,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="13"/>
-      <c r="B680" s="26"/>
+      <c r="B680" s="25"/>
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
@@ -49055,7 +49191,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="13"/>
-      <c r="B681" s="26"/>
+      <c r="B681" s="25"/>
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
@@ -49083,7 +49219,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="13"/>
-      <c r="B682" s="26"/>
+      <c r="B682" s="25"/>
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
@@ -49111,7 +49247,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="13"/>
-      <c r="B683" s="26"/>
+      <c r="B683" s="25"/>
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
@@ -49139,7 +49275,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="13"/>
-      <c r="B684" s="26"/>
+      <c r="B684" s="25"/>
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
@@ -49167,7 +49303,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="13"/>
-      <c r="B685" s="26"/>
+      <c r="B685" s="25"/>
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
@@ -49195,7 +49331,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="13"/>
-      <c r="B686" s="26"/>
+      <c r="B686" s="25"/>
       <c r="C686" s="11"/>
       <c r="D686" s="11"/>
       <c r="E686" s="11"/>
@@ -49223,7 +49359,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="13"/>
-      <c r="B687" s="26"/>
+      <c r="B687" s="25"/>
       <c r="C687" s="11"/>
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
@@ -49251,7 +49387,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="13"/>
-      <c r="B688" s="26"/>
+      <c r="B688" s="25"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
@@ -49279,7 +49415,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="13"/>
-      <c r="B689" s="26"/>
+      <c r="B689" s="25"/>
       <c r="C689" s="11"/>
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
@@ -49307,7 +49443,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="13"/>
-      <c r="B690" s="26"/>
+      <c r="B690" s="25"/>
       <c r="C690" s="11"/>
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
@@ -49335,7 +49471,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="13"/>
-      <c r="B691" s="26"/>
+      <c r="B691" s="25"/>
       <c r="C691" s="11"/>
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
@@ -49363,7 +49499,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="13"/>
-      <c r="B692" s="26"/>
+      <c r="B692" s="25"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
@@ -49391,7 +49527,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="13"/>
-      <c r="B693" s="26"/>
+      <c r="B693" s="25"/>
       <c r="C693" s="11"/>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
@@ -49419,7 +49555,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="13"/>
-      <c r="B694" s="26"/>
+      <c r="B694" s="25"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
@@ -49447,7 +49583,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="13"/>
-      <c r="B695" s="26"/>
+      <c r="B695" s="25"/>
       <c r="C695" s="11"/>
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
@@ -49475,7 +49611,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="13"/>
-      <c r="B696" s="26"/>
+      <c r="B696" s="25"/>
       <c r="C696" s="11"/>
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
@@ -49503,7 +49639,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="13"/>
-      <c r="B697" s="26"/>
+      <c r="B697" s="25"/>
       <c r="C697" s="11"/>
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
@@ -49531,7 +49667,7 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="13"/>
-      <c r="B698" s="26"/>
+      <c r="B698" s="25"/>
       <c r="C698" s="11"/>
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
@@ -49559,7 +49695,7 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="13"/>
-      <c r="B699" s="26"/>
+      <c r="B699" s="25"/>
       <c r="C699" s="11"/>
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
@@ -49587,7 +49723,7 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="13"/>
-      <c r="B700" s="26"/>
+      <c r="B700" s="25"/>
       <c r="C700" s="11"/>
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
@@ -49615,7 +49751,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="13"/>
-      <c r="B701" s="26"/>
+      <c r="B701" s="25"/>
       <c r="C701" s="11"/>
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
@@ -49643,7 +49779,7 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="13"/>
-      <c r="B702" s="26"/>
+      <c r="B702" s="25"/>
       <c r="C702" s="11"/>
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
@@ -49671,7 +49807,7 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="13"/>
-      <c r="B703" s="26"/>
+      <c r="B703" s="25"/>
       <c r="C703" s="11"/>
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
@@ -49699,7 +49835,7 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="13"/>
-      <c r="B704" s="26"/>
+      <c r="B704" s="25"/>
       <c r="C704" s="11"/>
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
@@ -49727,7 +49863,7 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="13"/>
-      <c r="B705" s="26"/>
+      <c r="B705" s="25"/>
       <c r="C705" s="11"/>
       <c r="D705" s="11"/>
       <c r="E705" s="11"/>
@@ -49755,7 +49891,7 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="13"/>
-      <c r="B706" s="26"/>
+      <c r="B706" s="25"/>
       <c r="C706" s="11"/>
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
@@ -49783,7 +49919,7 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="13"/>
-      <c r="B707" s="26"/>
+      <c r="B707" s="25"/>
       <c r="C707" s="11"/>
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
@@ -49811,7 +49947,7 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="13"/>
-      <c r="B708" s="26"/>
+      <c r="B708" s="25"/>
       <c r="C708" s="11"/>
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
@@ -49839,7 +49975,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="13"/>
-      <c r="B709" s="26"/>
+      <c r="B709" s="25"/>
       <c r="C709" s="11"/>
       <c r="D709" s="11"/>
       <c r="E709" s="11"/>
@@ -49867,7 +50003,7 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="13"/>
-      <c r="B710" s="26"/>
+      <c r="B710" s="25"/>
       <c r="C710" s="11"/>
       <c r="D710" s="11"/>
       <c r="E710" s="11"/>
@@ -49895,7 +50031,7 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="13"/>
-      <c r="B711" s="26"/>
+      <c r="B711" s="25"/>
       <c r="C711" s="11"/>
       <c r="D711" s="11"/>
       <c r="E711" s="11"/>
@@ -49923,7 +50059,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="13"/>
-      <c r="B712" s="26"/>
+      <c r="B712" s="25"/>
       <c r="C712" s="11"/>
       <c r="D712" s="11"/>
       <c r="E712" s="11"/>
@@ -49951,7 +50087,7 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="13"/>
-      <c r="B713" s="26"/>
+      <c r="B713" s="25"/>
       <c r="C713" s="11"/>
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
@@ -49979,7 +50115,7 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="13"/>
-      <c r="B714" s="26"/>
+      <c r="B714" s="25"/>
       <c r="C714" s="11"/>
       <c r="D714" s="11"/>
       <c r="E714" s="11"/>
@@ -50007,7 +50143,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="13"/>
-      <c r="B715" s="26"/>
+      <c r="B715" s="25"/>
       <c r="C715" s="11"/>
       <c r="D715" s="11"/>
       <c r="E715" s="11"/>
@@ -50035,7 +50171,7 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="13"/>
-      <c r="B716" s="26"/>
+      <c r="B716" s="25"/>
       <c r="C716" s="11"/>
       <c r="D716" s="11"/>
       <c r="E716" s="11"/>
@@ -50063,7 +50199,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="13"/>
-      <c r="B717" s="26"/>
+      <c r="B717" s="25"/>
       <c r="C717" s="11"/>
       <c r="D717" s="11"/>
       <c r="E717" s="11"/>
@@ -50091,7 +50227,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="13"/>
-      <c r="B718" s="26"/>
+      <c r="B718" s="25"/>
       <c r="C718" s="11"/>
       <c r="D718" s="11"/>
       <c r="E718" s="11"/>
@@ -50119,7 +50255,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="13"/>
-      <c r="B719" s="26"/>
+      <c r="B719" s="25"/>
       <c r="C719" s="11"/>
       <c r="D719" s="11"/>
       <c r="E719" s="11"/>
@@ -50147,7 +50283,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="13"/>
-      <c r="B720" s="26"/>
+      <c r="B720" s="25"/>
       <c r="C720" s="11"/>
       <c r="D720" s="11"/>
       <c r="E720" s="11"/>
@@ -50175,7 +50311,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="13"/>
-      <c r="B721" s="26"/>
+      <c r="B721" s="25"/>
       <c r="C721" s="11"/>
       <c r="D721" s="11"/>
       <c r="E721" s="11"/>
@@ -50203,7 +50339,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="13"/>
-      <c r="B722" s="26"/>
+      <c r="B722" s="25"/>
       <c r="C722" s="11"/>
       <c r="D722" s="11"/>
       <c r="E722" s="11"/>
@@ -50231,7 +50367,7 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="13"/>
-      <c r="B723" s="26"/>
+      <c r="B723" s="25"/>
       <c r="C723" s="11"/>
       <c r="D723" s="11"/>
       <c r="E723" s="11"/>
@@ -50259,7 +50395,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="13"/>
-      <c r="B724" s="26"/>
+      <c r="B724" s="25"/>
       <c r="C724" s="11"/>
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
@@ -50287,7 +50423,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="13"/>
-      <c r="B725" s="26"/>
+      <c r="B725" s="25"/>
       <c r="C725" s="11"/>
       <c r="D725" s="11"/>
       <c r="E725" s="11"/>
@@ -50315,7 +50451,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="13"/>
-      <c r="B726" s="26"/>
+      <c r="B726" s="25"/>
       <c r="C726" s="11"/>
       <c r="D726" s="11"/>
       <c r="E726" s="11"/>
@@ -50343,7 +50479,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="13"/>
-      <c r="B727" s="26"/>
+      <c r="B727" s="25"/>
       <c r="C727" s="11"/>
       <c r="D727" s="11"/>
       <c r="E727" s="11"/>
@@ -50371,7 +50507,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="13"/>
-      <c r="B728" s="26"/>
+      <c r="B728" s="25"/>
       <c r="C728" s="11"/>
       <c r="D728" s="11"/>
       <c r="E728" s="11"/>
@@ -50399,7 +50535,7 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="13"/>
-      <c r="B729" s="26"/>
+      <c r="B729" s="25"/>
       <c r="C729" s="11"/>
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
@@ -50427,7 +50563,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="13"/>
-      <c r="B730" s="26"/>
+      <c r="B730" s="25"/>
       <c r="C730" s="11"/>
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
@@ -50455,7 +50591,7 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="13"/>
-      <c r="B731" s="26"/>
+      <c r="B731" s="25"/>
       <c r="C731" s="11"/>
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
@@ -50483,7 +50619,7 @@
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="13"/>
-      <c r="B732" s="26"/>
+      <c r="B732" s="25"/>
       <c r="C732" s="11"/>
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
@@ -50511,7 +50647,7 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="13"/>
-      <c r="B733" s="26"/>
+      <c r="B733" s="25"/>
       <c r="C733" s="11"/>
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
@@ -50539,7 +50675,7 @@
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="13"/>
-      <c r="B734" s="26"/>
+      <c r="B734" s="25"/>
       <c r="C734" s="11"/>
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
@@ -50567,7 +50703,7 @@
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="13"/>
-      <c r="B735" s="26"/>
+      <c r="B735" s="25"/>
       <c r="C735" s="11"/>
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
@@ -50595,7 +50731,7 @@
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="13"/>
-      <c r="B736" s="26"/>
+      <c r="B736" s="25"/>
       <c r="C736" s="11"/>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
@@ -50623,7 +50759,7 @@
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="13"/>
-      <c r="B737" s="26"/>
+      <c r="B737" s="25"/>
       <c r="C737" s="11"/>
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
@@ -50651,7 +50787,7 @@
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="13"/>
-      <c r="B738" s="26"/>
+      <c r="B738" s="25"/>
       <c r="C738" s="11"/>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
@@ -50679,7 +50815,7 @@
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="13"/>
-      <c r="B739" s="26"/>
+      <c r="B739" s="25"/>
       <c r="C739" s="11"/>
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
@@ -50707,7 +50843,7 @@
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="13"/>
-      <c r="B740" s="26"/>
+      <c r="B740" s="25"/>
       <c r="C740" s="11"/>
       <c r="D740" s="11"/>
       <c r="E740" s="11"/>
@@ -50735,7 +50871,7 @@
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="13"/>
-      <c r="B741" s="26"/>
+      <c r="B741" s="25"/>
       <c r="C741" s="11"/>
       <c r="D741" s="11"/>
       <c r="E741" s="11"/>
@@ -50763,7 +50899,7 @@
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="13"/>
-      <c r="B742" s="26"/>
+      <c r="B742" s="25"/>
       <c r="C742" s="11"/>
       <c r="D742" s="11"/>
       <c r="E742" s="11"/>
@@ -50791,7 +50927,7 @@
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="13"/>
-      <c r="B743" s="26"/>
+      <c r="B743" s="25"/>
       <c r="C743" s="11"/>
       <c r="D743" s="11"/>
       <c r="E743" s="11"/>
@@ -50819,7 +50955,7 @@
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="13"/>
-      <c r="B744" s="26"/>
+      <c r="B744" s="25"/>
       <c r="C744" s="11"/>
       <c r="D744" s="11"/>
       <c r="E744" s="11"/>
@@ -50847,7 +50983,7 @@
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="13"/>
-      <c r="B745" s="26"/>
+      <c r="B745" s="25"/>
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
       <c r="E745" s="11"/>
@@ -50875,7 +51011,7 @@
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="13"/>
-      <c r="B746" s="26"/>
+      <c r="B746" s="25"/>
       <c r="C746" s="11"/>
       <c r="D746" s="11"/>
       <c r="E746" s="11"/>
@@ -50903,7 +51039,7 @@
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="13"/>
-      <c r="B747" s="26"/>
+      <c r="B747" s="25"/>
       <c r="C747" s="11"/>
       <c r="D747" s="11"/>
       <c r="E747" s="11"/>
@@ -50931,7 +51067,7 @@
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="13"/>
-      <c r="B748" s="26"/>
+      <c r="B748" s="25"/>
       <c r="C748" s="11"/>
       <c r="D748" s="11"/>
       <c r="E748" s="11"/>
@@ -50959,7 +51095,7 @@
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="13"/>
-      <c r="B749" s="26"/>
+      <c r="B749" s="25"/>
       <c r="C749" s="11"/>
       <c r="D749" s="11"/>
       <c r="E749" s="11"/>
@@ -50987,7 +51123,7 @@
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="13"/>
-      <c r="B750" s="26"/>
+      <c r="B750" s="25"/>
       <c r="C750" s="11"/>
       <c r="D750" s="11"/>
       <c r="E750" s="11"/>
@@ -51015,7 +51151,7 @@
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="13"/>
-      <c r="B751" s="26"/>
+      <c r="B751" s="25"/>
       <c r="C751" s="11"/>
       <c r="D751" s="11"/>
       <c r="E751" s="11"/>
@@ -51043,7 +51179,7 @@
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="13"/>
-      <c r="B752" s="26"/>
+      <c r="B752" s="25"/>
       <c r="C752" s="11"/>
       <c r="D752" s="11"/>
       <c r="E752" s="11"/>
@@ -51071,7 +51207,7 @@
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="13"/>
-      <c r="B753" s="26"/>
+      <c r="B753" s="25"/>
       <c r="C753" s="11"/>
       <c r="D753" s="11"/>
       <c r="E753" s="11"/>
@@ -51099,7 +51235,7 @@
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="13"/>
-      <c r="B754" s="26"/>
+      <c r="B754" s="25"/>
       <c r="C754" s="11"/>
       <c r="D754" s="11"/>
       <c r="E754" s="11"/>
@@ -51127,7 +51263,7 @@
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="13"/>
-      <c r="B755" s="26"/>
+      <c r="B755" s="25"/>
       <c r="C755" s="11"/>
       <c r="D755" s="11"/>
       <c r="E755" s="11"/>
@@ -51155,7 +51291,7 @@
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="13"/>
-      <c r="B756" s="26"/>
+      <c r="B756" s="25"/>
       <c r="C756" s="11"/>
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
@@ -51183,7 +51319,7 @@
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="13"/>
-      <c r="B757" s="26"/>
+      <c r="B757" s="25"/>
       <c r="C757" s="11"/>
       <c r="D757" s="11"/>
       <c r="E757" s="11"/>
@@ -51211,7 +51347,7 @@
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="13"/>
-      <c r="B758" s="26"/>
+      <c r="B758" s="25"/>
       <c r="C758" s="11"/>
       <c r="D758" s="11"/>
       <c r="E758" s="11"/>
@@ -51239,7 +51375,7 @@
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="13"/>
-      <c r="B759" s="26"/>
+      <c r="B759" s="25"/>
       <c r="C759" s="11"/>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
@@ -51267,7 +51403,7 @@
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="13"/>
-      <c r="B760" s="26"/>
+      <c r="B760" s="25"/>
       <c r="C760" s="11"/>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
@@ -51295,7 +51431,7 @@
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="13"/>
-      <c r="B761" s="26"/>
+      <c r="B761" s="25"/>
       <c r="C761" s="11"/>
       <c r="D761" s="11"/>
       <c r="E761" s="11"/>
@@ -51323,7 +51459,7 @@
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="13"/>
-      <c r="B762" s="26"/>
+      <c r="B762" s="25"/>
       <c r="C762" s="11"/>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
@@ -51351,7 +51487,7 @@
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="13"/>
-      <c r="B763" s="26"/>
+      <c r="B763" s="25"/>
       <c r="C763" s="11"/>
       <c r="D763" s="11"/>
       <c r="E763" s="11"/>
@@ -51379,7 +51515,7 @@
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="13"/>
-      <c r="B764" s="26"/>
+      <c r="B764" s="25"/>
       <c r="C764" s="11"/>
       <c r="D764" s="11"/>
       <c r="E764" s="11"/>
@@ -51407,7 +51543,7 @@
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="13"/>
-      <c r="B765" s="26"/>
+      <c r="B765" s="25"/>
       <c r="C765" s="11"/>
       <c r="D765" s="11"/>
       <c r="E765" s="11"/>
@@ -51435,7 +51571,7 @@
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="13"/>
-      <c r="B766" s="26"/>
+      <c r="B766" s="25"/>
       <c r="C766" s="11"/>
       <c r="D766" s="11"/>
       <c r="E766" s="11"/>
@@ -51463,7 +51599,7 @@
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="13"/>
-      <c r="B767" s="26"/>
+      <c r="B767" s="25"/>
       <c r="C767" s="11"/>
       <c r="D767" s="11"/>
       <c r="E767" s="11"/>
@@ -51491,7 +51627,7 @@
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="13"/>
-      <c r="B768" s="26"/>
+      <c r="B768" s="25"/>
       <c r="C768" s="11"/>
       <c r="D768" s="11"/>
       <c r="E768" s="11"/>
@@ -51519,7 +51655,7 @@
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="13"/>
-      <c r="B769" s="26"/>
+      <c r="B769" s="25"/>
       <c r="C769" s="11"/>
       <c r="D769" s="11"/>
       <c r="E769" s="11"/>
@@ -51547,7 +51683,7 @@
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="13"/>
-      <c r="B770" s="26"/>
+      <c r="B770" s="25"/>
       <c r="C770" s="11"/>
       <c r="D770" s="11"/>
       <c r="E770" s="11"/>
@@ -51575,7 +51711,7 @@
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="13"/>
-      <c r="B771" s="26"/>
+      <c r="B771" s="25"/>
       <c r="C771" s="11"/>
       <c r="D771" s="11"/>
       <c r="E771" s="11"/>
@@ -51603,7 +51739,7 @@
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="13"/>
-      <c r="B772" s="26"/>
+      <c r="B772" s="25"/>
       <c r="C772" s="11"/>
       <c r="D772" s="11"/>
       <c r="E772" s="11"/>
@@ -51631,7 +51767,7 @@
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="13"/>
-      <c r="B773" s="26"/>
+      <c r="B773" s="25"/>
       <c r="C773" s="11"/>
       <c r="D773" s="11"/>
       <c r="E773" s="11"/>
@@ -51659,7 +51795,7 @@
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="13"/>
-      <c r="B774" s="26"/>
+      <c r="B774" s="25"/>
       <c r="C774" s="11"/>
       <c r="D774" s="11"/>
       <c r="E774" s="11"/>
@@ -51687,7 +51823,7 @@
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="13"/>
-      <c r="B775" s="26"/>
+      <c r="B775" s="25"/>
       <c r="C775" s="11"/>
       <c r="D775" s="11"/>
       <c r="E775" s="11"/>
@@ -51715,7 +51851,7 @@
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="13"/>
-      <c r="B776" s="26"/>
+      <c r="B776" s="25"/>
       <c r="C776" s="11"/>
       <c r="D776" s="11"/>
       <c r="E776" s="11"/>
@@ -51743,7 +51879,7 @@
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="13"/>
-      <c r="B777" s="26"/>
+      <c r="B777" s="25"/>
       <c r="C777" s="11"/>
       <c r="D777" s="11"/>
       <c r="E777" s="11"/>
@@ -51771,7 +51907,7 @@
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="13"/>
-      <c r="B778" s="26"/>
+      <c r="B778" s="25"/>
       <c r="C778" s="11"/>
       <c r="D778" s="11"/>
       <c r="E778" s="11"/>
@@ -51799,7 +51935,7 @@
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="13"/>
-      <c r="B779" s="26"/>
+      <c r="B779" s="25"/>
       <c r="C779" s="11"/>
       <c r="D779" s="11"/>
       <c r="E779" s="11"/>
@@ -51827,7 +51963,7 @@
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="13"/>
-      <c r="B780" s="26"/>
+      <c r="B780" s="25"/>
       <c r="C780" s="11"/>
       <c r="D780" s="11"/>
       <c r="E780" s="11"/>
@@ -51855,7 +51991,7 @@
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="13"/>
-      <c r="B781" s="26"/>
+      <c r="B781" s="25"/>
       <c r="C781" s="11"/>
       <c r="D781" s="11"/>
       <c r="E781" s="11"/>
@@ -51883,7 +52019,7 @@
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="13"/>
-      <c r="B782" s="26"/>
+      <c r="B782" s="25"/>
       <c r="C782" s="11"/>
       <c r="D782" s="11"/>
       <c r="E782" s="11"/>
@@ -51911,7 +52047,7 @@
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="13"/>
-      <c r="B783" s="26"/>
+      <c r="B783" s="25"/>
       <c r="C783" s="11"/>
       <c r="D783" s="11"/>
       <c r="E783" s="11"/>
@@ -51939,7 +52075,7 @@
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="13"/>
-      <c r="B784" s="26"/>
+      <c r="B784" s="25"/>
       <c r="C784" s="11"/>
       <c r="D784" s="11"/>
       <c r="E784" s="11"/>
@@ -51967,7 +52103,7 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="13"/>
-      <c r="B785" s="26"/>
+      <c r="B785" s="25"/>
       <c r="C785" s="11"/>
       <c r="D785" s="11"/>
       <c r="E785" s="11"/>
@@ -51995,7 +52131,7 @@
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="13"/>
-      <c r="B786" s="26"/>
+      <c r="B786" s="25"/>
       <c r="C786" s="11"/>
       <c r="D786" s="11"/>
       <c r="E786" s="11"/>
@@ -52023,7 +52159,7 @@
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="13"/>
-      <c r="B787" s="26"/>
+      <c r="B787" s="25"/>
       <c r="C787" s="11"/>
       <c r="D787" s="11"/>
       <c r="E787" s="11"/>
@@ -52051,7 +52187,7 @@
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="13"/>
-      <c r="B788" s="26"/>
+      <c r="B788" s="25"/>
       <c r="C788" s="11"/>
       <c r="D788" s="11"/>
       <c r="E788" s="11"/>
@@ -52079,7 +52215,7 @@
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="13"/>
-      <c r="B789" s="26"/>
+      <c r="B789" s="25"/>
       <c r="C789" s="11"/>
       <c r="D789" s="11"/>
       <c r="E789" s="11"/>
@@ -52107,7 +52243,7 @@
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="13"/>
-      <c r="B790" s="26"/>
+      <c r="B790" s="25"/>
       <c r="C790" s="11"/>
       <c r="D790" s="11"/>
       <c r="E790" s="11"/>
@@ -52135,7 +52271,7 @@
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="13"/>
-      <c r="B791" s="26"/>
+      <c r="B791" s="25"/>
       <c r="C791" s="11"/>
       <c r="D791" s="11"/>
       <c r="E791" s="11"/>
@@ -52163,7 +52299,7 @@
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="13"/>
-      <c r="B792" s="26"/>
+      <c r="B792" s="25"/>
       <c r="C792" s="11"/>
       <c r="D792" s="11"/>
       <c r="E792" s="11"/>
@@ -52191,7 +52327,7 @@
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="13"/>
-      <c r="B793" s="26"/>
+      <c r="B793" s="25"/>
       <c r="C793" s="11"/>
       <c r="D793" s="11"/>
       <c r="E793" s="11"/>
@@ -52219,7 +52355,7 @@
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="13"/>
-      <c r="B794" s="26"/>
+      <c r="B794" s="25"/>
       <c r="C794" s="11"/>
       <c r="D794" s="11"/>
       <c r="E794" s="11"/>
@@ -52247,7 +52383,7 @@
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="13"/>
-      <c r="B795" s="26"/>
+      <c r="B795" s="25"/>
       <c r="C795" s="11"/>
       <c r="D795" s="11"/>
       <c r="E795" s="11"/>
@@ -52275,7 +52411,7 @@
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="13"/>
-      <c r="B796" s="26"/>
+      <c r="B796" s="25"/>
       <c r="C796" s="11"/>
       <c r="D796" s="11"/>
       <c r="E796" s="11"/>
@@ -52303,7 +52439,7 @@
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="13"/>
-      <c r="B797" s="26"/>
+      <c r="B797" s="25"/>
       <c r="C797" s="11"/>
       <c r="D797" s="11"/>
       <c r="E797" s="11"/>
@@ -52331,7 +52467,7 @@
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="13"/>
-      <c r="B798" s="26"/>
+      <c r="B798" s="25"/>
       <c r="C798" s="11"/>
       <c r="D798" s="11"/>
       <c r="E798" s="11"/>
@@ -52359,7 +52495,7 @@
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="13"/>
-      <c r="B799" s="26"/>
+      <c r="B799" s="25"/>
       <c r="C799" s="11"/>
       <c r="D799" s="11"/>
       <c r="E799" s="11"/>
@@ -52387,7 +52523,7 @@
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="13"/>
-      <c r="B800" s="26"/>
+      <c r="B800" s="25"/>
       <c r="C800" s="11"/>
       <c r="D800" s="11"/>
       <c r="E800" s="11"/>
@@ -52415,7 +52551,7 @@
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="13"/>
-      <c r="B801" s="26"/>
+      <c r="B801" s="25"/>
       <c r="C801" s="11"/>
       <c r="D801" s="11"/>
       <c r="E801" s="11"/>
@@ -52443,7 +52579,7 @@
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="13"/>
-      <c r="B802" s="26"/>
+      <c r="B802" s="25"/>
       <c r="C802" s="11"/>
       <c r="D802" s="11"/>
       <c r="E802" s="11"/>
@@ -52471,7 +52607,7 @@
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="13"/>
-      <c r="B803" s="26"/>
+      <c r="B803" s="25"/>
       <c r="C803" s="11"/>
       <c r="D803" s="11"/>
       <c r="E803" s="11"/>
@@ -52499,7 +52635,7 @@
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="13"/>
-      <c r="B804" s="26"/>
+      <c r="B804" s="25"/>
       <c r="C804" s="11"/>
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
@@ -52527,7 +52663,7 @@
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="13"/>
-      <c r="B805" s="26"/>
+      <c r="B805" s="25"/>
       <c r="C805" s="11"/>
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
@@ -52555,7 +52691,7 @@
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="13"/>
-      <c r="B806" s="26"/>
+      <c r="B806" s="25"/>
       <c r="C806" s="11"/>
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
@@ -52583,7 +52719,7 @@
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="13"/>
-      <c r="B807" s="26"/>
+      <c r="B807" s="25"/>
       <c r="C807" s="11"/>
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
@@ -52611,7 +52747,7 @@
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="13"/>
-      <c r="B808" s="26"/>
+      <c r="B808" s="25"/>
       <c r="C808" s="11"/>
       <c r="D808" s="11"/>
       <c r="E808" s="11"/>
@@ -52639,7 +52775,7 @@
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="13"/>
-      <c r="B809" s="26"/>
+      <c r="B809" s="25"/>
       <c r="C809" s="11"/>
       <c r="D809" s="11"/>
       <c r="E809" s="11"/>
@@ -52667,7 +52803,7 @@
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="13"/>
-      <c r="B810" s="26"/>
+      <c r="B810" s="25"/>
       <c r="C810" s="11"/>
       <c r="D810" s="11"/>
       <c r="E810" s="11"/>
@@ -52695,7 +52831,7 @@
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="13"/>
-      <c r="B811" s="26"/>
+      <c r="B811" s="25"/>
       <c r="C811" s="11"/>
       <c r="D811" s="11"/>
       <c r="E811" s="11"/>
@@ -52723,7 +52859,7 @@
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="13"/>
-      <c r="B812" s="26"/>
+      <c r="B812" s="25"/>
       <c r="C812" s="11"/>
       <c r="D812" s="11"/>
       <c r="E812" s="11"/>
@@ -52751,7 +52887,7 @@
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="13"/>
-      <c r="B813" s="26"/>
+      <c r="B813" s="25"/>
       <c r="C813" s="11"/>
       <c r="D813" s="11"/>
       <c r="E813" s="11"/>
@@ -52779,7 +52915,7 @@
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="13"/>
-      <c r="B814" s="26"/>
+      <c r="B814" s="25"/>
       <c r="C814" s="11"/>
       <c r="D814" s="11"/>
       <c r="E814" s="11"/>
@@ -52807,7 +52943,7 @@
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="13"/>
-      <c r="B815" s="26"/>
+      <c r="B815" s="25"/>
       <c r="C815" s="11"/>
       <c r="D815" s="11"/>
       <c r="E815" s="11"/>
@@ -52835,7 +52971,7 @@
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="13"/>
-      <c r="B816" s="26"/>
+      <c r="B816" s="25"/>
       <c r="C816" s="11"/>
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
@@ -52863,7 +52999,7 @@
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="13"/>
-      <c r="B817" s="26"/>
+      <c r="B817" s="25"/>
       <c r="C817" s="11"/>
       <c r="D817" s="11"/>
       <c r="E817" s="11"/>
@@ -52891,7 +53027,7 @@
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="13"/>
-      <c r="B818" s="26"/>
+      <c r="B818" s="25"/>
       <c r="C818" s="11"/>
       <c r="D818" s="11"/>
       <c r="E818" s="11"/>
@@ -52919,7 +53055,7 @@
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="13"/>
-      <c r="B819" s="26"/>
+      <c r="B819" s="25"/>
       <c r="C819" s="11"/>
       <c r="D819" s="11"/>
       <c r="E819" s="11"/>
@@ -52947,7 +53083,7 @@
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="13"/>
-      <c r="B820" s="26"/>
+      <c r="B820" s="25"/>
       <c r="C820" s="11"/>
       <c r="D820" s="11"/>
       <c r="E820" s="11"/>
@@ -52975,7 +53111,7 @@
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="13"/>
-      <c r="B821" s="26"/>
+      <c r="B821" s="25"/>
       <c r="C821" s="11"/>
       <c r="D821" s="11"/>
       <c r="E821" s="11"/>
@@ -53003,7 +53139,7 @@
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="13"/>
-      <c r="B822" s="26"/>
+      <c r="B822" s="25"/>
       <c r="C822" s="11"/>
       <c r="D822" s="11"/>
       <c r="E822" s="11"/>
@@ -53031,7 +53167,7 @@
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="13"/>
-      <c r="B823" s="26"/>
+      <c r="B823" s="25"/>
       <c r="C823" s="11"/>
       <c r="D823" s="11"/>
       <c r="E823" s="11"/>
@@ -53059,7 +53195,7 @@
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="13"/>
-      <c r="B824" s="26"/>
+      <c r="B824" s="25"/>
       <c r="C824" s="11"/>
       <c r="D824" s="11"/>
       <c r="E824" s="11"/>
@@ -53087,7 +53223,7 @@
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="13"/>
-      <c r="B825" s="26"/>
+      <c r="B825" s="25"/>
       <c r="C825" s="11"/>
       <c r="D825" s="11"/>
       <c r="E825" s="11"/>
@@ -53115,7 +53251,7 @@
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="13"/>
-      <c r="B826" s="26"/>
+      <c r="B826" s="25"/>
       <c r="C826" s="11"/>
       <c r="D826" s="11"/>
       <c r="E826" s="11"/>
@@ -53143,7 +53279,7 @@
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="13"/>
-      <c r="B827" s="26"/>
+      <c r="B827" s="25"/>
       <c r="C827" s="11"/>
       <c r="D827" s="11"/>
       <c r="E827" s="11"/>
@@ -53171,7 +53307,7 @@
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="13"/>
-      <c r="B828" s="26"/>
+      <c r="B828" s="25"/>
       <c r="C828" s="11"/>
       <c r="D828" s="11"/>
       <c r="E828" s="11"/>
@@ -53199,7 +53335,7 @@
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="13"/>
-      <c r="B829" s="26"/>
+      <c r="B829" s="25"/>
       <c r="C829" s="11"/>
       <c r="D829" s="11"/>
       <c r="E829" s="11"/>
@@ -53227,7 +53363,7 @@
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="13"/>
-      <c r="B830" s="26"/>
+      <c r="B830" s="25"/>
       <c r="C830" s="11"/>
       <c r="D830" s="11"/>
       <c r="E830" s="11"/>
@@ -53255,7 +53391,7 @@
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="13"/>
-      <c r="B831" s="26"/>
+      <c r="B831" s="25"/>
       <c r="C831" s="11"/>
       <c r="D831" s="11"/>
       <c r="E831" s="11"/>
@@ -53283,7 +53419,7 @@
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="13"/>
-      <c r="B832" s="26"/>
+      <c r="B832" s="25"/>
       <c r="C832" s="11"/>
       <c r="D832" s="11"/>
       <c r="E832" s="11"/>
@@ -53311,7 +53447,7 @@
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="13"/>
-      <c r="B833" s="26"/>
+      <c r="B833" s="25"/>
       <c r="C833" s="11"/>
       <c r="D833" s="11"/>
       <c r="E833" s="11"/>
@@ -53339,7 +53475,7 @@
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="13"/>
-      <c r="B834" s="26"/>
+      <c r="B834" s="25"/>
       <c r="C834" s="11"/>
       <c r="D834" s="11"/>
       <c r="E834" s="11"/>
@@ -53367,7 +53503,7 @@
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="13"/>
-      <c r="B835" s="26"/>
+      <c r="B835" s="25"/>
       <c r="C835" s="11"/>
       <c r="D835" s="11"/>
       <c r="E835" s="11"/>
@@ -53395,7 +53531,7 @@
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="13"/>
-      <c r="B836" s="26"/>
+      <c r="B836" s="25"/>
       <c r="C836" s="11"/>
       <c r="D836" s="11"/>
       <c r="E836" s="11"/>
@@ -53423,7 +53559,7 @@
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="13"/>
-      <c r="B837" s="26"/>
+      <c r="B837" s="25"/>
       <c r="C837" s="11"/>
       <c r="D837" s="11"/>
       <c r="E837" s="11"/>
@@ -53451,7 +53587,7 @@
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="13"/>
-      <c r="B838" s="26"/>
+      <c r="B838" s="25"/>
       <c r="C838" s="11"/>
       <c r="D838" s="11"/>
       <c r="E838" s="11"/>
@@ -53479,7 +53615,7 @@
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="13"/>
-      <c r="B839" s="26"/>
+      <c r="B839" s="25"/>
       <c r="C839" s="11"/>
       <c r="D839" s="11"/>
       <c r="E839" s="11"/>
@@ -53507,7 +53643,7 @@
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="13"/>
-      <c r="B840" s="26"/>
+      <c r="B840" s="25"/>
       <c r="C840" s="11"/>
       <c r="D840" s="11"/>
       <c r="E840" s="11"/>
@@ -53535,7 +53671,7 @@
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="13"/>
-      <c r="B841" s="26"/>
+      <c r="B841" s="25"/>
       <c r="C841" s="11"/>
       <c r="D841" s="11"/>
       <c r="E841" s="11"/>
@@ -53563,7 +53699,7 @@
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="13"/>
-      <c r="B842" s="26"/>
+      <c r="B842" s="25"/>
       <c r="C842" s="11"/>
       <c r="D842" s="11"/>
       <c r="E842" s="11"/>
@@ -53591,7 +53727,7 @@
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="13"/>
-      <c r="B843" s="26"/>
+      <c r="B843" s="25"/>
       <c r="C843" s="11"/>
       <c r="D843" s="11"/>
       <c r="E843" s="11"/>
@@ -53619,7 +53755,7 @@
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="13"/>
-      <c r="B844" s="26"/>
+      <c r="B844" s="25"/>
       <c r="C844" s="11"/>
       <c r="D844" s="11"/>
       <c r="E844" s="11"/>
@@ -53647,7 +53783,7 @@
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="13"/>
-      <c r="B845" s="26"/>
+      <c r="B845" s="25"/>
       <c r="C845" s="11"/>
       <c r="D845" s="11"/>
       <c r="E845" s="11"/>
@@ -53675,7 +53811,7 @@
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="13"/>
-      <c r="B846" s="26"/>
+      <c r="B846" s="25"/>
       <c r="C846" s="11"/>
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
@@ -53703,7 +53839,7 @@
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="13"/>
-      <c r="B847" s="26"/>
+      <c r="B847" s="25"/>
       <c r="C847" s="11"/>
       <c r="D847" s="11"/>
       <c r="E847" s="11"/>
@@ -53731,7 +53867,7 @@
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="13"/>
-      <c r="B848" s="26"/>
+      <c r="B848" s="25"/>
       <c r="C848" s="11"/>
       <c r="D848" s="11"/>
       <c r="E848" s="11"/>
@@ -53759,7 +53895,7 @@
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="13"/>
-      <c r="B849" s="26"/>
+      <c r="B849" s="25"/>
       <c r="C849" s="11"/>
       <c r="D849" s="11"/>
       <c r="E849" s="11"/>
@@ -53787,7 +53923,7 @@
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="13"/>
-      <c r="B850" s="26"/>
+      <c r="B850" s="25"/>
       <c r="C850" s="11"/>
       <c r="D850" s="11"/>
       <c r="E850" s="11"/>
@@ -53815,7 +53951,7 @@
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="13"/>
-      <c r="B851" s="26"/>
+      <c r="B851" s="25"/>
       <c r="C851" s="11"/>
       <c r="D851" s="11"/>
       <c r="E851" s="11"/>
@@ -53843,7 +53979,7 @@
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="13"/>
-      <c r="B852" s="26"/>
+      <c r="B852" s="25"/>
       <c r="C852" s="11"/>
       <c r="D852" s="11"/>
       <c r="E852" s="11"/>
@@ -53871,7 +54007,7 @@
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="13"/>
-      <c r="B853" s="26"/>
+      <c r="B853" s="25"/>
       <c r="C853" s="11"/>
       <c r="D853" s="11"/>
       <c r="E853" s="11"/>
@@ -53899,7 +54035,7 @@
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="13"/>
-      <c r="B854" s="26"/>
+      <c r="B854" s="25"/>
       <c r="C854" s="11"/>
       <c r="D854" s="11"/>
       <c r="E854" s="11"/>
@@ -53927,7 +54063,7 @@
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="13"/>
-      <c r="B855" s="26"/>
+      <c r="B855" s="25"/>
       <c r="C855" s="11"/>
       <c r="D855" s="11"/>
       <c r="E855" s="11"/>
@@ -53955,7 +54091,7 @@
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="13"/>
-      <c r="B856" s="26"/>
+      <c r="B856" s="25"/>
       <c r="C856" s="11"/>
       <c r="D856" s="11"/>
       <c r="E856" s="11"/>
@@ -53983,7 +54119,7 @@
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="13"/>
-      <c r="B857" s="26"/>
+      <c r="B857" s="25"/>
       <c r="C857" s="11"/>
       <c r="D857" s="11"/>
       <c r="E857" s="11"/>
@@ -54011,7 +54147,7 @@
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="13"/>
-      <c r="B858" s="26"/>
+      <c r="B858" s="25"/>
       <c r="C858" s="11"/>
       <c r="D858" s="11"/>
       <c r="E858" s="11"/>
@@ -54039,7 +54175,7 @@
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="13"/>
-      <c r="B859" s="26"/>
+      <c r="B859" s="25"/>
       <c r="C859" s="11"/>
       <c r="D859" s="11"/>
       <c r="E859" s="11"/>
@@ -54067,7 +54203,7 @@
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="13"/>
-      <c r="B860" s="26"/>
+      <c r="B860" s="25"/>
       <c r="C860" s="11"/>
       <c r="D860" s="11"/>
       <c r="E860" s="11"/>
@@ -54095,7 +54231,7 @@
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="13"/>
-      <c r="B861" s="26"/>
+      <c r="B861" s="25"/>
       <c r="C861" s="11"/>
       <c r="D861" s="11"/>
       <c r="E861" s="11"/>
@@ -54123,7 +54259,7 @@
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="13"/>
-      <c r="B862" s="26"/>
+      <c r="B862" s="25"/>
       <c r="C862" s="11"/>
       <c r="D862" s="11"/>
       <c r="E862" s="11"/>
@@ -54151,7 +54287,7 @@
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="13"/>
-      <c r="B863" s="26"/>
+      <c r="B863" s="25"/>
       <c r="C863" s="11"/>
       <c r="D863" s="11"/>
       <c r="E863" s="11"/>
@@ -54179,7 +54315,7 @@
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="13"/>
-      <c r="B864" s="26"/>
+      <c r="B864" s="25"/>
       <c r="C864" s="11"/>
       <c r="D864" s="11"/>
       <c r="E864" s="11"/>
@@ -54207,7 +54343,7 @@
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="13"/>
-      <c r="B865" s="26"/>
+      <c r="B865" s="25"/>
       <c r="C865" s="11"/>
       <c r="D865" s="11"/>
       <c r="E865" s="11"/>
@@ -54235,7 +54371,7 @@
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="13"/>
-      <c r="B866" s="26"/>
+      <c r="B866" s="25"/>
       <c r="C866" s="11"/>
       <c r="D866" s="11"/>
       <c r="E866" s="11"/>
@@ -54263,7 +54399,7 @@
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="13"/>
-      <c r="B867" s="26"/>
+      <c r="B867" s="25"/>
       <c r="C867" s="11"/>
       <c r="D867" s="11"/>
       <c r="E867" s="11"/>
@@ -54291,7 +54427,7 @@
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="13"/>
-      <c r="B868" s="26"/>
+      <c r="B868" s="25"/>
       <c r="C868" s="11"/>
       <c r="D868" s="11"/>
       <c r="E868" s="11"/>
@@ -54319,7 +54455,7 @@
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="13"/>
-      <c r="B869" s="26"/>
+      <c r="B869" s="25"/>
       <c r="C869" s="11"/>
       <c r="D869" s="11"/>
       <c r="E869" s="11"/>
@@ -54347,7 +54483,7 @@
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="13"/>
-      <c r="B870" s="26"/>
+      <c r="B870" s="25"/>
       <c r="C870" s="11"/>
       <c r="D870" s="11"/>
       <c r="E870" s="11"/>
@@ -54375,7 +54511,7 @@
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="13"/>
-      <c r="B871" s="26"/>
+      <c r="B871" s="25"/>
       <c r="C871" s="11"/>
       <c r="D871" s="11"/>
       <c r="E871" s="11"/>
@@ -54403,7 +54539,7 @@
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="13"/>
-      <c r="B872" s="26"/>
+      <c r="B872" s="25"/>
       <c r="C872" s="11"/>
       <c r="D872" s="11"/>
       <c r="E872" s="11"/>
@@ -54431,7 +54567,7 @@
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="13"/>
-      <c r="B873" s="26"/>
+      <c r="B873" s="25"/>
       <c r="C873" s="11"/>
       <c r="D873" s="11"/>
       <c r="E873" s="11"/>
@@ -54459,7 +54595,7 @@
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="13"/>
-      <c r="B874" s="26"/>
+      <c r="B874" s="25"/>
       <c r="C874" s="11"/>
       <c r="D874" s="11"/>
       <c r="E874" s="11"/>
@@ -54487,7 +54623,7 @@
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="13"/>
-      <c r="B875" s="26"/>
+      <c r="B875" s="25"/>
       <c r="C875" s="11"/>
       <c r="D875" s="11"/>
       <c r="E875" s="11"/>
@@ -54515,7 +54651,7 @@
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="13"/>
-      <c r="B876" s="26"/>
+      <c r="B876" s="25"/>
       <c r="C876" s="11"/>
       <c r="D876" s="11"/>
       <c r="E876" s="11"/>
@@ -54543,7 +54679,7 @@
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="13"/>
-      <c r="B877" s="26"/>
+      <c r="B877" s="25"/>
       <c r="C877" s="11"/>
       <c r="D877" s="11"/>
       <c r="E877" s="11"/>
@@ -54571,7 +54707,7 @@
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="13"/>
-      <c r="B878" s="26"/>
+      <c r="B878" s="25"/>
       <c r="C878" s="11"/>
       <c r="D878" s="11"/>
       <c r="E878" s="11"/>
@@ -54599,7 +54735,7 @@
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="13"/>
-      <c r="B879" s="26"/>
+      <c r="B879" s="25"/>
       <c r="C879" s="11"/>
       <c r="D879" s="11"/>
       <c r="E879" s="11"/>
@@ -54627,7 +54763,7 @@
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="13"/>
-      <c r="B880" s="26"/>
+      <c r="B880" s="25"/>
       <c r="C880" s="11"/>
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
@@ -54655,7 +54791,7 @@
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="13"/>
-      <c r="B881" s="26"/>
+      <c r="B881" s="25"/>
       <c r="C881" s="11"/>
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
@@ -54683,7 +54819,7 @@
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="13"/>
-      <c r="B882" s="26"/>
+      <c r="B882" s="25"/>
       <c r="C882" s="11"/>
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
@@ -54711,7 +54847,7 @@
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="13"/>
-      <c r="B883" s="26"/>
+      <c r="B883" s="25"/>
       <c r="C883" s="11"/>
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
@@ -54739,7 +54875,7 @@
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="13"/>
-      <c r="B884" s="26"/>
+      <c r="B884" s="25"/>
       <c r="C884" s="11"/>
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
@@ -54767,7 +54903,7 @@
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="13"/>
-      <c r="B885" s="26"/>
+      <c r="B885" s="25"/>
       <c r="C885" s="11"/>
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
@@ -54795,7 +54931,7 @@
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="13"/>
-      <c r="B886" s="26"/>
+      <c r="B886" s="25"/>
       <c r="C886" s="11"/>
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
@@ -54823,7 +54959,7 @@
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="13"/>
-      <c r="B887" s="26"/>
+      <c r="B887" s="25"/>
       <c r="C887" s="11"/>
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
@@ -54851,7 +54987,7 @@
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="13"/>
-      <c r="B888" s="26"/>
+      <c r="B888" s="25"/>
       <c r="C888" s="11"/>
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
@@ -54879,7 +55015,7 @@
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="13"/>
-      <c r="B889" s="26"/>
+      <c r="B889" s="25"/>
       <c r="C889" s="11"/>
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
@@ -54907,7 +55043,7 @@
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="13"/>
-      <c r="B890" s="26"/>
+      <c r="B890" s="25"/>
       <c r="C890" s="11"/>
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
@@ -54935,7 +55071,7 @@
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="13"/>
-      <c r="B891" s="26"/>
+      <c r="B891" s="25"/>
       <c r="C891" s="11"/>
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
@@ -54963,7 +55099,7 @@
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="13"/>
-      <c r="B892" s="26"/>
+      <c r="B892" s="25"/>
       <c r="C892" s="11"/>
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
@@ -54991,7 +55127,7 @@
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="13"/>
-      <c r="B893" s="26"/>
+      <c r="B893" s="25"/>
       <c r="C893" s="11"/>
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
@@ -55019,7 +55155,7 @@
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="13"/>
-      <c r="B894" s="26"/>
+      <c r="B894" s="25"/>
       <c r="C894" s="11"/>
       <c r="D894" s="11"/>
       <c r="E894" s="11"/>
@@ -55047,7 +55183,7 @@
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="13"/>
-      <c r="B895" s="26"/>
+      <c r="B895" s="25"/>
       <c r="C895" s="11"/>
       <c r="D895" s="11"/>
       <c r="E895" s="11"/>
@@ -55075,7 +55211,7 @@
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="13"/>
-      <c r="B896" s="26"/>
+      <c r="B896" s="25"/>
       <c r="C896" s="11"/>
       <c r="D896" s="11"/>
       <c r="E896" s="11"/>
@@ -55103,7 +55239,7 @@
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="13"/>
-      <c r="B897" s="26"/>
+      <c r="B897" s="25"/>
       <c r="C897" s="11"/>
       <c r="D897" s="11"/>
       <c r="E897" s="11"/>
@@ -55131,7 +55267,7 @@
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="13"/>
-      <c r="B898" s="26"/>
+      <c r="B898" s="25"/>
       <c r="C898" s="11"/>
       <c r="D898" s="11"/>
       <c r="E898" s="11"/>
@@ -55159,7 +55295,7 @@
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="13"/>
-      <c r="B899" s="26"/>
+      <c r="B899" s="25"/>
       <c r="C899" s="11"/>
       <c r="D899" s="11"/>
       <c r="E899" s="11"/>
@@ -55187,7 +55323,7 @@
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="13"/>
-      <c r="B900" s="26"/>
+      <c r="B900" s="25"/>
       <c r="C900" s="11"/>
       <c r="D900" s="11"/>
       <c r="E900" s="11"/>
@@ -55215,7 +55351,7 @@
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="13"/>
-      <c r="B901" s="26"/>
+      <c r="B901" s="25"/>
       <c r="C901" s="11"/>
       <c r="D901" s="11"/>
       <c r="E901" s="11"/>
@@ -55243,7 +55379,7 @@
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="13"/>
-      <c r="B902" s="26"/>
+      <c r="B902" s="25"/>
       <c r="C902" s="11"/>
       <c r="D902" s="11"/>
       <c r="E902" s="11"/>
@@ -55271,7 +55407,7 @@
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="13"/>
-      <c r="B903" s="26"/>
+      <c r="B903" s="25"/>
       <c r="C903" s="11"/>
       <c r="D903" s="11"/>
       <c r="E903" s="11"/>
@@ -55299,7 +55435,7 @@
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="13"/>
-      <c r="B904" s="26"/>
+      <c r="B904" s="25"/>
       <c r="C904" s="11"/>
       <c r="D904" s="11"/>
       <c r="E904" s="11"/>
@@ -55327,7 +55463,7 @@
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="13"/>
-      <c r="B905" s="26"/>
+      <c r="B905" s="25"/>
       <c r="C905" s="11"/>
       <c r="D905" s="11"/>
       <c r="E905" s="11"/>
@@ -55355,7 +55491,7 @@
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="13"/>
-      <c r="B906" s="26"/>
+      <c r="B906" s="25"/>
       <c r="C906" s="11"/>
       <c r="D906" s="11"/>
       <c r="E906" s="11"/>
@@ -55383,7 +55519,7 @@
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="13"/>
-      <c r="B907" s="26"/>
+      <c r="B907" s="25"/>
       <c r="C907" s="11"/>
       <c r="D907" s="11"/>
       <c r="E907" s="11"/>
@@ -55411,7 +55547,7 @@
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="13"/>
-      <c r="B908" s="26"/>
+      <c r="B908" s="25"/>
       <c r="C908" s="11"/>
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
@@ -55439,7 +55575,7 @@
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="13"/>
-      <c r="B909" s="26"/>
+      <c r="B909" s="25"/>
       <c r="C909" s="11"/>
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
@@ -55467,7 +55603,7 @@
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="13"/>
-      <c r="B910" s="26"/>
+      <c r="B910" s="25"/>
       <c r="C910" s="11"/>
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
@@ -55495,7 +55631,7 @@
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="13"/>
-      <c r="B911" s="26"/>
+      <c r="B911" s="25"/>
       <c r="C911" s="11"/>
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
@@ -55523,7 +55659,7 @@
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="13"/>
-      <c r="B912" s="26"/>
+      <c r="B912" s="25"/>
       <c r="C912" s="11"/>
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
@@ -55551,7 +55687,7 @@
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="13"/>
-      <c r="B913" s="26"/>
+      <c r="B913" s="25"/>
       <c r="C913" s="11"/>
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
@@ -55579,7 +55715,7 @@
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="13"/>
-      <c r="B914" s="26"/>
+      <c r="B914" s="25"/>
       <c r="C914" s="11"/>
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
@@ -55607,7 +55743,7 @@
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="13"/>
-      <c r="B915" s="26"/>
+      <c r="B915" s="25"/>
       <c r="C915" s="11"/>
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
@@ -55635,7 +55771,7 @@
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="13"/>
-      <c r="B916" s="26"/>
+      <c r="B916" s="25"/>
       <c r="C916" s="11"/>
       <c r="D916" s="11"/>
       <c r="E916" s="11"/>
@@ -55663,7 +55799,7 @@
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="13"/>
-      <c r="B917" s="26"/>
+      <c r="B917" s="25"/>
       <c r="C917" s="11"/>
       <c r="D917" s="11"/>
       <c r="E917" s="11"/>
@@ -55691,7 +55827,7 @@
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="13"/>
-      <c r="B918" s="26"/>
+      <c r="B918" s="25"/>
       <c r="C918" s="11"/>
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
@@ -55719,7 +55855,7 @@
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="13"/>
-      <c r="B919" s="26"/>
+      <c r="B919" s="25"/>
       <c r="C919" s="11"/>
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
@@ -55747,7 +55883,7 @@
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="13"/>
-      <c r="B920" s="26"/>
+      <c r="B920" s="25"/>
       <c r="C920" s="11"/>
       <c r="D920" s="11"/>
       <c r="E920" s="11"/>
@@ -55775,7 +55911,7 @@
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="13"/>
-      <c r="B921" s="26"/>
+      <c r="B921" s="25"/>
       <c r="C921" s="11"/>
       <c r="D921" s="11"/>
       <c r="E921" s="11"/>
@@ -55803,7 +55939,7 @@
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="13"/>
-      <c r="B922" s="26"/>
+      <c r="B922" s="25"/>
       <c r="C922" s="11"/>
       <c r="D922" s="11"/>
       <c r="E922" s="11"/>
@@ -55831,7 +55967,7 @@
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="13"/>
-      <c r="B923" s="26"/>
+      <c r="B923" s="25"/>
       <c r="C923" s="11"/>
       <c r="D923" s="11"/>
       <c r="E923" s="11"/>
@@ -55859,7 +55995,7 @@
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="13"/>
-      <c r="B924" s="26"/>
+      <c r="B924" s="25"/>
       <c r="C924" s="11"/>
       <c r="D924" s="11"/>
       <c r="E924" s="11"/>
@@ -55887,7 +56023,7 @@
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="13"/>
-      <c r="B925" s="26"/>
+      <c r="B925" s="25"/>
       <c r="C925" s="11"/>
       <c r="D925" s="11"/>
       <c r="E925" s="11"/>
@@ -55915,7 +56051,7 @@
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="13"/>
-      <c r="B926" s="26"/>
+      <c r="B926" s="25"/>
       <c r="C926" s="11"/>
       <c r="D926" s="11"/>
       <c r="E926" s="11"/>
@@ -55943,7 +56079,7 @@
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="13"/>
-      <c r="B927" s="26"/>
+      <c r="B927" s="25"/>
       <c r="C927" s="11"/>
       <c r="D927" s="11"/>
       <c r="E927" s="11"/>
@@ -55971,7 +56107,7 @@
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="13"/>
-      <c r="B928" s="26"/>
+      <c r="B928" s="25"/>
       <c r="C928" s="11"/>
       <c r="D928" s="11"/>
       <c r="E928" s="11"/>
@@ -55999,7 +56135,7 @@
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="13"/>
-      <c r="B929" s="26"/>
+      <c r="B929" s="25"/>
       <c r="C929" s="11"/>
       <c r="D929" s="11"/>
       <c r="E929" s="11"/>
@@ -56027,7 +56163,7 @@
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="13"/>
-      <c r="B930" s="26"/>
+      <c r="B930" s="25"/>
       <c r="C930" s="11"/>
       <c r="D930" s="11"/>
       <c r="E930" s="11"/>
@@ -56055,7 +56191,7 @@
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="13"/>
-      <c r="B931" s="26"/>
+      <c r="B931" s="25"/>
       <c r="C931" s="11"/>
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
@@ -56083,7 +56219,7 @@
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="13"/>
-      <c r="B932" s="26"/>
+      <c r="B932" s="25"/>
       <c r="C932" s="11"/>
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
@@ -56111,7 +56247,7 @@
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="13"/>
-      <c r="B933" s="26"/>
+      <c r="B933" s="25"/>
       <c r="C933" s="11"/>
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
@@ -56139,7 +56275,7 @@
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="13"/>
-      <c r="B934" s="26"/>
+      <c r="B934" s="25"/>
       <c r="C934" s="11"/>
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
@@ -56167,7 +56303,7 @@
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="13"/>
-      <c r="B935" s="26"/>
+      <c r="B935" s="25"/>
       <c r="C935" s="11"/>
       <c r="D935" s="11"/>
       <c r="E935" s="11"/>
@@ -56195,7 +56331,7 @@
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="13"/>
-      <c r="B936" s="26"/>
+      <c r="B936" s="25"/>
       <c r="C936" s="11"/>
       <c r="D936" s="11"/>
       <c r="E936" s="11"/>
@@ -56223,7 +56359,7 @@
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="13"/>
-      <c r="B937" s="26"/>
+      <c r="B937" s="25"/>
       <c r="C937" s="11"/>
       <c r="D937" s="11"/>
       <c r="E937" s="11"/>
@@ -56251,7 +56387,7 @@
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="13"/>
-      <c r="B938" s="26"/>
+      <c r="B938" s="25"/>
       <c r="C938" s="11"/>
       <c r="D938" s="11"/>
       <c r="E938" s="11"/>
@@ -56279,7 +56415,7 @@
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="13"/>
-      <c r="B939" s="26"/>
+      <c r="B939" s="25"/>
       <c r="C939" s="11"/>
       <c r="D939" s="11"/>
       <c r="E939" s="11"/>
@@ -56307,7 +56443,7 @@
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="13"/>
-      <c r="B940" s="26"/>
+      <c r="B940" s="25"/>
       <c r="C940" s="11"/>
       <c r="D940" s="11"/>
       <c r="E940" s="11"/>
@@ -56335,7 +56471,7 @@
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="13"/>
-      <c r="B941" s="26"/>
+      <c r="B941" s="25"/>
       <c r="C941" s="11"/>
       <c r="D941" s="11"/>
       <c r="E941" s="11"/>
@@ -56363,7 +56499,7 @@
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="13"/>
-      <c r="B942" s="26"/>
+      <c r="B942" s="25"/>
       <c r="C942" s="11"/>
       <c r="D942" s="11"/>
       <c r="E942" s="11"/>
@@ -56391,7 +56527,7 @@
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="13"/>
-      <c r="B943" s="26"/>
+      <c r="B943" s="25"/>
       <c r="C943" s="11"/>
       <c r="D943" s="11"/>
       <c r="E943" s="11"/>
@@ -56419,7 +56555,7 @@
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="13"/>
-      <c r="B944" s="26"/>
+      <c r="B944" s="25"/>
       <c r="C944" s="11"/>
       <c r="D944" s="11"/>
       <c r="E944" s="11"/>
@@ -56447,7 +56583,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="13"/>
-      <c r="B945" s="26"/>
+      <c r="B945" s="25"/>
       <c r="C945" s="11"/>
       <c r="D945" s="11"/>
       <c r="E945" s="11"/>
@@ -56475,7 +56611,7 @@
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="13"/>
-      <c r="B946" s="26"/>
+      <c r="B946" s="25"/>
       <c r="C946" s="11"/>
       <c r="D946" s="11"/>
       <c r="E946" s="11"/>
@@ -56503,7 +56639,7 @@
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="13"/>
-      <c r="B947" s="26"/>
+      <c r="B947" s="25"/>
       <c r="C947" s="11"/>
       <c r="D947" s="11"/>
       <c r="E947" s="11"/>
@@ -56531,7 +56667,7 @@
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="13"/>
-      <c r="B948" s="26"/>
+      <c r="B948" s="25"/>
       <c r="C948" s="11"/>
       <c r="D948" s="11"/>
       <c r="E948" s="11"/>
@@ -56559,7 +56695,7 @@
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="13"/>
-      <c r="B949" s="26"/>
+      <c r="B949" s="25"/>
       <c r="C949" s="11"/>
       <c r="D949" s="11"/>
       <c r="E949" s="11"/>
@@ -56587,7 +56723,7 @@
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="13"/>
-      <c r="B950" s="26"/>
+      <c r="B950" s="25"/>
       <c r="C950" s="11"/>
       <c r="D950" s="11"/>
       <c r="E950" s="11"/>
@@ -56615,7 +56751,7 @@
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="13"/>
-      <c r="B951" s="26"/>
+      <c r="B951" s="25"/>
       <c r="C951" s="11"/>
       <c r="D951" s="11"/>
       <c r="E951" s="11"/>
@@ -56643,7 +56779,7 @@
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="13"/>
-      <c r="B952" s="26"/>
+      <c r="B952" s="25"/>
       <c r="C952" s="11"/>
       <c r="D952" s="11"/>
       <c r="E952" s="11"/>
@@ -56671,7 +56807,7 @@
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="13"/>
-      <c r="B953" s="26"/>
+      <c r="B953" s="25"/>
       <c r="C953" s="11"/>
       <c r="D953" s="11"/>
       <c r="E953" s="11"/>
@@ -56699,7 +56835,7 @@
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="13"/>
-      <c r="B954" s="26"/>
+      <c r="B954" s="25"/>
       <c r="C954" s="11"/>
       <c r="D954" s="11"/>
       <c r="E954" s="11"/>
@@ -56727,7 +56863,7 @@
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="13"/>
-      <c r="B955" s="26"/>
+      <c r="B955" s="25"/>
       <c r="C955" s="11"/>
       <c r="D955" s="11"/>
       <c r="E955" s="11"/>
@@ -56755,7 +56891,7 @@
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="13"/>
-      <c r="B956" s="26"/>
+      <c r="B956" s="25"/>
       <c r="C956" s="11"/>
       <c r="D956" s="11"/>
       <c r="E956" s="11"/>
@@ -56783,7 +56919,7 @@
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="13"/>
-      <c r="B957" s="26"/>
+      <c r="B957" s="25"/>
       <c r="C957" s="11"/>
       <c r="D957" s="11"/>
       <c r="E957" s="11"/>
@@ -56811,7 +56947,7 @@
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="13"/>
-      <c r="B958" s="26"/>
+      <c r="B958" s="25"/>
       <c r="C958" s="11"/>
       <c r="D958" s="11"/>
       <c r="E958" s="11"/>
@@ -56839,7 +56975,7 @@
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="13"/>
-      <c r="B959" s="26"/>
+      <c r="B959" s="25"/>
       <c r="C959" s="11"/>
       <c r="D959" s="11"/>
       <c r="E959" s="11"/>
@@ -56867,7 +57003,7 @@
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="13"/>
-      <c r="B960" s="26"/>
+      <c r="B960" s="25"/>
       <c r="C960" s="11"/>
       <c r="D960" s="11"/>
       <c r="E960" s="11"/>
@@ -56895,7 +57031,7 @@
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="13"/>
-      <c r="B961" s="26"/>
+      <c r="B961" s="25"/>
       <c r="C961" s="11"/>
       <c r="D961" s="11"/>
       <c r="E961" s="11"/>
@@ -56923,7 +57059,7 @@
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="13"/>
-      <c r="B962" s="26"/>
+      <c r="B962" s="25"/>
       <c r="C962" s="11"/>
       <c r="D962" s="11"/>
       <c r="E962" s="11"/>
@@ -56951,7 +57087,7 @@
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="13"/>
-      <c r="B963" s="26"/>
+      <c r="B963" s="25"/>
       <c r="C963" s="11"/>
       <c r="D963" s="11"/>
       <c r="E963" s="11"/>
@@ -56979,7 +57115,7 @@
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="13"/>
-      <c r="B964" s="26"/>
+      <c r="B964" s="25"/>
       <c r="C964" s="11"/>
       <c r="D964" s="11"/>
       <c r="E964" s="11"/>
@@ -57007,7 +57143,7 @@
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="13"/>
-      <c r="B965" s="26"/>
+      <c r="B965" s="25"/>
       <c r="C965" s="11"/>
       <c r="D965" s="11"/>
       <c r="E965" s="11"/>
@@ -57035,7 +57171,7 @@
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="13"/>
-      <c r="B966" s="26"/>
+      <c r="B966" s="25"/>
       <c r="C966" s="11"/>
       <c r="D966" s="11"/>
       <c r="E966" s="11"/>
@@ -57063,7 +57199,7 @@
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="13"/>
-      <c r="B967" s="26"/>
+      <c r="B967" s="25"/>
       <c r="C967" s="11"/>
       <c r="D967" s="11"/>
       <c r="E967" s="11"/>
@@ -57091,7 +57227,7 @@
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="13"/>
-      <c r="B968" s="26"/>
+      <c r="B968" s="25"/>
       <c r="C968" s="11"/>
       <c r="D968" s="11"/>
       <c r="E968" s="11"/>
@@ -57119,7 +57255,7 @@
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="13"/>
-      <c r="B969" s="26"/>
+      <c r="B969" s="25"/>
       <c r="C969" s="11"/>
       <c r="D969" s="11"/>
       <c r="E969" s="11"/>
@@ -57147,7 +57283,7 @@
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="13"/>
-      <c r="B970" s="26"/>
+      <c r="B970" s="25"/>
       <c r="C970" s="11"/>
       <c r="D970" s="11"/>
       <c r="E970" s="11"/>
@@ -57175,7 +57311,7 @@
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="13"/>
-      <c r="B971" s="26"/>
+      <c r="B971" s="25"/>
       <c r="C971" s="11"/>
       <c r="D971" s="11"/>
       <c r="E971" s="11"/>
@@ -57203,7 +57339,7 @@
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="13"/>
-      <c r="B972" s="26"/>
+      <c r="B972" s="25"/>
       <c r="C972" s="11"/>
       <c r="D972" s="11"/>
       <c r="E972" s="11"/>
@@ -57231,7 +57367,7 @@
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="13"/>
-      <c r="B973" s="26"/>
+      <c r="B973" s="25"/>
       <c r="C973" s="11"/>
       <c r="D973" s="11"/>
       <c r="E973" s="11"/>
@@ -57259,7 +57395,7 @@
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="13"/>
-      <c r="B974" s="26"/>
+      <c r="B974" s="25"/>
       <c r="C974" s="11"/>
       <c r="D974" s="11"/>
       <c r="E974" s="11"/>
@@ -57287,7 +57423,7 @@
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="13"/>
-      <c r="B975" s="26"/>
+      <c r="B975" s="25"/>
       <c r="C975" s="11"/>
       <c r="D975" s="11"/>
       <c r="E975" s="11"/>
@@ -57315,7 +57451,7 @@
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="13"/>
-      <c r="B976" s="26"/>
+      <c r="B976" s="25"/>
       <c r="C976" s="11"/>
       <c r="D976" s="11"/>
       <c r="E976" s="11"/>
@@ -57343,7 +57479,7 @@
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="13"/>
-      <c r="B977" s="26"/>
+      <c r="B977" s="25"/>
       <c r="C977" s="11"/>
       <c r="D977" s="11"/>
       <c r="E977" s="11"/>
@@ -57371,7 +57507,7 @@
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="13"/>
-      <c r="B978" s="26"/>
+      <c r="B978" s="25"/>
       <c r="C978" s="11"/>
       <c r="D978" s="11"/>
       <c r="E978" s="11"/>
@@ -57399,7 +57535,7 @@
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="13"/>
-      <c r="B979" s="26"/>
+      <c r="B979" s="25"/>
       <c r="C979" s="11"/>
       <c r="D979" s="11"/>
       <c r="E979" s="11"/>
@@ -57427,7 +57563,7 @@
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="13"/>
-      <c r="B980" s="26"/>
+      <c r="B980" s="25"/>
       <c r="C980" s="11"/>
       <c r="D980" s="11"/>
       <c r="E980" s="11"/>
@@ -57455,7 +57591,7 @@
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="13"/>
-      <c r="B981" s="26"/>
+      <c r="B981" s="25"/>
       <c r="C981" s="11"/>
       <c r="D981" s="11"/>
       <c r="E981" s="11"/>
@@ -57483,7 +57619,7 @@
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="13"/>
-      <c r="B982" s="26"/>
+      <c r="B982" s="25"/>
       <c r="C982" s="11"/>
       <c r="D982" s="11"/>
       <c r="E982" s="11"/>
@@ -57511,7 +57647,7 @@
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="13"/>
-      <c r="B983" s="26"/>
+      <c r="B983" s="25"/>
       <c r="C983" s="11"/>
       <c r="D983" s="11"/>
       <c r="E983" s="11"/>
@@ -57539,7 +57675,7 @@
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="13"/>
-      <c r="B984" s="26"/>
+      <c r="B984" s="25"/>
       <c r="C984" s="11"/>
       <c r="D984" s="11"/>
       <c r="E984" s="11"/>
@@ -57567,7 +57703,7 @@
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="13"/>
-      <c r="B985" s="26"/>
+      <c r="B985" s="25"/>
       <c r="C985" s="11"/>
       <c r="D985" s="11"/>
       <c r="E985" s="11"/>
@@ -57595,7 +57731,7 @@
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="13"/>
-      <c r="B986" s="26"/>
+      <c r="B986" s="25"/>
       <c r="C986" s="11"/>
       <c r="D986" s="11"/>
       <c r="E986" s="11"/>
@@ -57623,7 +57759,7 @@
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="13"/>
-      <c r="B987" s="26"/>
+      <c r="B987" s="25"/>
       <c r="C987" s="11"/>
       <c r="D987" s="11"/>
       <c r="E987" s="11"/>
@@ -57651,7 +57787,7 @@
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="13"/>
-      <c r="B988" s="26"/>
+      <c r="B988" s="25"/>
       <c r="C988" s="11"/>
       <c r="D988" s="11"/>
       <c r="E988" s="11"/>
@@ -57679,7 +57815,7 @@
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="13"/>
-      <c r="B989" s="26"/>
+      <c r="B989" s="25"/>
       <c r="C989" s="11"/>
       <c r="D989" s="11"/>
       <c r="E989" s="11"/>
@@ -57707,7 +57843,7 @@
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="13"/>
-      <c r="B990" s="26"/>
+      <c r="B990" s="25"/>
       <c r="C990" s="11"/>
       <c r="D990" s="11"/>
       <c r="E990" s="11"/>
@@ -57735,7 +57871,7 @@
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="13"/>
-      <c r="B991" s="26"/>
+      <c r="B991" s="25"/>
       <c r="C991" s="11"/>
       <c r="D991" s="11"/>
       <c r="E991" s="11"/>
@@ -57763,7 +57899,7 @@
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="13"/>
-      <c r="B992" s="26"/>
+      <c r="B992" s="25"/>
       <c r="C992" s="11"/>
       <c r="D992" s="11"/>
       <c r="E992" s="11"/>
@@ -57791,7 +57927,7 @@
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="13"/>
-      <c r="B993" s="26"/>
+      <c r="B993" s="25"/>
       <c r="C993" s="11"/>
       <c r="D993" s="11"/>
       <c r="E993" s="11"/>
@@ -57819,7 +57955,7 @@
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="13"/>
-      <c r="B994" s="26"/>
+      <c r="B994" s="25"/>
       <c r="C994" s="11"/>
       <c r="D994" s="11"/>
       <c r="E994" s="11"/>
@@ -57847,7 +57983,7 @@
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="13"/>
-      <c r="B995" s="26"/>
+      <c r="B995" s="25"/>
       <c r="C995" s="11"/>
       <c r="D995" s="11"/>
       <c r="E995" s="11"/>
@@ -57875,7 +58011,7 @@
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="13"/>
-      <c r="B996" s="26"/>
+      <c r="B996" s="25"/>
       <c r="C996" s="11"/>
       <c r="D996" s="11"/>
       <c r="E996" s="11"/>
@@ -57903,7 +58039,7 @@
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="13"/>
-      <c r="B997" s="26"/>
+      <c r="B997" s="25"/>
       <c r="C997" s="11"/>
       <c r="D997" s="11"/>
       <c r="E997" s="11"/>
